--- a/Data/2022-08-08_Behavior_Assay_effsize.xlsx
+++ b/Data/2022-08-08_Behavior_Assay_effsize.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -50,27 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -446,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F172"/>
+  <dimension ref="A1:E163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,22 +434,22 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Moving [s]|Accomodation</t>
+        </is>
+      </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Moving [s]|Accomodation</t>
+          <t>Velocity [mm/s]|Light</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Velocity [mm/s]|Light</t>
+          <t>Velocity [mm/s]|Dark</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Velocity [mm/s]|Dark</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Velocity|Ratio Light/Dark</t>
         </is>
@@ -479,393 +458,343 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>(-)-Anisomycin_2F06</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>1</v>
+          <t>(+)-Mefloquine_2C11</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>-0.162876979008659</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.1452383489048286</v>
+        <v>0.3541838439172261</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.8037273083161686</v>
+        <v>0.1417871751525446</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4219654947053558</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1.007727772503799</v>
+        <v>-0.1383169197327613</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>(RS)-PPCC_2E05</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>1</v>
+          <t>(-)-Anisomycin_2F06</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-0.1452383489048286</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.9612247229666391</v>
+        <v>-0.8037273083161686</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.2689655714235629</v>
+        <v>0.4219654947053558</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.6610729972962706</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.3376307389194682</v>
+        <v>1.007727772503799</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>ABT 239_1F10</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>1</v>
+          <t>(RS)-PPCC_2E05</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-0.9612247229666391</v>
       </c>
       <c r="C4" t="n">
-        <v>0.696726694995384</v>
+        <v>-0.2689655714235629</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5940449885712614</v>
+        <v>-0.6610729972962706</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7292817695172309</v>
-      </c>
-      <c r="F4" t="n">
-        <v>-0.4203026320019885</v>
+        <v>0.3376307389194682</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>AZ3451_2E06</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>1</v>
+          <t>ABT 239_1F10</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.696726694995384</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.1767968022259921</v>
+        <v>0.5940449885712614</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.6342376725220431</v>
+        <v>0.7292817695172309</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.05667937261649766</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.5984849215592883</v>
+        <v>-0.4203026320019885</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Abacavir_2H07</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>1</v>
+          <t>AZ3451_2E06</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.1767968022259921</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4416129113722693</v>
+        <v>-0.6342376725220431</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.1662777828228485</v>
+        <v>-0.05667937261649766</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5878314216589851</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.1201430428385314</v>
+        <v>0.5984849215592883</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Abemaciclib_1G11</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>1</v>
+          <t>Abacavir_2H07</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.4416129113722693</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04241719494369257</v>
+        <v>-0.1662777828228485</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1213511323065756</v>
+        <v>0.5878314216589851</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2702481526676694</v>
-      </c>
-      <c r="F7" t="n">
-        <v>-0.2497729175912962</v>
+        <v>0.1201430428385314</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Almitrine_1G04</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>1</v>
+          <t>Abemaciclib_1G11</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.04241719494369257</v>
       </c>
       <c r="C8" t="n">
-        <v>1.482837819156851</v>
+        <v>0.1213511323065756</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9416903819575732</v>
+        <v>0.2702481526676694</v>
       </c>
       <c r="E8" t="n">
-        <v>1.243833815112687</v>
-      </c>
-      <c r="F8" t="n">
-        <v>-1.421909178291799</v>
+        <v>-0.2497729175912962</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Amiodarone_1F03</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>1</v>
+          <t>Almitrine_1G04</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1.482837819156851</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5375688310188934</v>
+        <v>0.9416903819575732</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7166874128263558</v>
+        <v>1.243833815112687</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5791278056313104</v>
-      </c>
-      <c r="F9" t="n">
-        <v>-0.6728430207882676</v>
+        <v>-1.421909178291799</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Amodiaquine_1D03</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>1</v>
+          <t>Amiodarone_1F03</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.5375688310188934</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7098702473736654</v>
+        <v>0.7166874128263558</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1735428577552738</v>
+        <v>0.5791278056313104</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3853429912133307</v>
-      </c>
-      <c r="F10" t="n">
-        <v>-0.2865121174499744</v>
+        <v>-0.6728430207882676</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Amuvatinib_1E04</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>1</v>
+          <t>Amodiaquine_1D03</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.7098702473736654</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.110627494825529</v>
+        <v>0.1735428577552738</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8800909917684629</v>
+        <v>0.3853429912133307</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.1876565470567373</v>
-      </c>
-      <c r="F11" t="n">
-        <v>-0.8462154158300349</v>
+        <v>-0.2865121174499744</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Anagliptin_2E10</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>1</v>
+          <t>Amuvatinib_1E04</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-1.110627494825529</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.7316334018665962</v>
+        <v>0.8800909917684629</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.5415361233077383</v>
+        <v>-0.1876565470567373</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.7176751828714633</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.3462408430284052</v>
+        <v>-0.8462154158300349</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Anidulafungin_2B03</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>1</v>
+          <t>Anagliptin_2E10</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-0.7316334018665962</v>
       </c>
       <c r="C13" t="n">
-        <v>1.263877905072586</v>
+        <v>-0.5415361233077383</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5264088233077249</v>
+        <v>-0.7176751828714633</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8992621340705877</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-0.3471484457011016</v>
+        <v>0.3462408430284052</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Apilimod_1B03</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>0.5</v>
+          <t>Anidulafungin_2B03</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1.263877905072586</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.4152582700280831</v>
+        <v>0.5264088233077249</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6107289757458451</v>
+        <v>0.8992621340705877</v>
       </c>
       <c r="E14" t="n">
-        <v>1.003537303040891</v>
-      </c>
-      <c r="F14" t="n">
-        <v>-1.060195225393582</v>
+        <v>-0.3471484457011016</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Apixaban_2H09</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>1</v>
+          <t>Apilimod_1B03</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-0.4152582700280831</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.6804944127061853</v>
+        <v>0.6107289757458451</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2173249736324974</v>
+        <v>1.003537303040891</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.2013644553801844</v>
-      </c>
-      <c r="F15" t="n">
-        <v>-0.290802287725581</v>
+        <v>-1.060195225393582</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Apremilast_2F05</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>1</v>
+          <t>Apixaban_2H09</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-0.6804944127061853</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.2886443203374377</v>
+        <v>0.2173249736324974</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.178534911260453</v>
+        <v>-0.2013644553801844</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1486117301307572</v>
-      </c>
-      <c r="F16" t="n">
-        <v>-0.3829936557190705</v>
+        <v>-0.290802287725581</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Aprepitant_2F03</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>1</v>
+          <t>Apremilast_2F05</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-0.2886443203374377</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.2079368092952155</v>
+        <v>-0.178534911260453</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.6697513029662219</v>
+        <v>0.1486117301307572</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.01148069735712443</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.6371047004069476</v>
+        <v>-0.3829936557190705</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
+          <t>Aprepitant_2F03</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-0.2079368092952155</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-0.6697513029662219</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-0.01148069735712443</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.6371047004069476</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
           <t>Astemizole_1D04</t>
         </is>
       </c>
-      <c r="B18" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1.179378926491304</v>
-      </c>
-      <c r="D18" t="n">
-        <v>-0.04168894015307253</v>
-      </c>
-      <c r="E18" t="n">
-        <v>2.049634926712888</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1.977738329872573</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n"/>
-      <c r="B19" s="1" t="n">
-        <v>0.5</v>
+      <c r="B19" t="n">
+        <v>1.16600758357259</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.1880176471697267</v>
+        <v>-0.3614773221729876</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6415695042913032</v>
+        <v>1.913597629284654</v>
       </c>
       <c r="E19" t="n">
-        <v>1.198525151350013</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.4124871963039855</v>
+        <v>2.170817640581379</v>
       </c>
     </row>
     <row r="20">
@@ -874,19 +803,16 @@
           <t>Atazanavir_1B10</t>
         </is>
       </c>
-      <c r="B20" s="1" t="n">
-        <v>1</v>
+      <c r="B20" t="n">
+        <v>-0.3005983162018894</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.3005983162018894</v>
+        <v>0.5722197597163861</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5722197597163861</v>
+        <v>-0.1879388030544454</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.1879388030544454</v>
-      </c>
-      <c r="F20" t="n">
         <v>-0.8106607526965967</v>
       </c>
     </row>
@@ -896,19 +822,16 @@
           <t>Baricitinib_2C09</t>
         </is>
       </c>
-      <c r="B21" s="1" t="n">
-        <v>1</v>
+      <c r="B21" t="n">
+        <v>-0.4450438343036802</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.4450438343036802</v>
+        <v>0.09672107591854945</v>
       </c>
       <c r="D21" t="n">
-        <v>0.09672107591854945</v>
+        <v>-0.1811062293868999</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.1811062293868999</v>
-      </c>
-      <c r="F21" t="n">
         <v>-0.04762353853020884</v>
       </c>
     </row>
@@ -918,19 +841,16 @@
           <t>Bemcentinib_1A04</t>
         </is>
       </c>
-      <c r="B22" s="1" t="n">
-        <v>1</v>
+      <c r="B22" t="n">
+        <v>0.2685307507175189</v>
       </c>
       <c r="C22" t="n">
-        <v>0.2685307507175189</v>
+        <v>0.5353993333058208</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5353993333058208</v>
+        <v>-0.3016415205386078</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.3016415205386078</v>
-      </c>
-      <c r="F22" t="n">
         <v>-1.015226519130589</v>
       </c>
     </row>
@@ -940,19 +860,16 @@
           <t>Benztropine_1G02</t>
         </is>
       </c>
-      <c r="B23" s="1" t="n">
-        <v>1</v>
+      <c r="B23" t="n">
+        <v>0.6454902204686465</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6454902204686465</v>
+        <v>-0.1944174309833787</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.1944174309833787</v>
+        <v>0.4039522561066831</v>
       </c>
       <c r="E23" t="n">
-        <v>0.4039522561066831</v>
-      </c>
-      <c r="F23" t="n">
         <v>0.111383230691951</v>
       </c>
     </row>
@@ -962,19 +879,16 @@
           <t>Berbamine_2A09</t>
         </is>
       </c>
-      <c r="B24" s="1" t="n">
-        <v>1</v>
+      <c r="B24" t="n">
+        <v>0.1781884457728155</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1781884457728155</v>
+        <v>-0.7940204313038682</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.7940204313038682</v>
+        <v>0.5975670453665038</v>
       </c>
       <c r="E24" t="n">
-        <v>0.5975670453665038</v>
-      </c>
-      <c r="F24" t="n">
         <v>0.8262302939242706</v>
       </c>
     </row>
@@ -984,19 +898,16 @@
           <t>Boceprevir_2G09</t>
         </is>
       </c>
-      <c r="B25" s="1" t="n">
-        <v>1</v>
+      <c r="B25" t="n">
+        <v>0.03095468917081114</v>
       </c>
       <c r="C25" t="n">
-        <v>0.03095468917081114</v>
+        <v>-0.1792124248494029</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.1792124248494029</v>
+        <v>0.1291333411030302</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1291333411030302</v>
-      </c>
-      <c r="F25" t="n">
         <v>-0.05197419283618135</v>
       </c>
     </row>
@@ -1006,19 +917,16 @@
           <t>Bortezomib_2G06</t>
         </is>
       </c>
-      <c r="B26" s="1" t="n">
-        <v>1</v>
+      <c r="B26" t="n">
+        <v>0.1287813305668085</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1287813305668085</v>
+        <v>-0.282926463325205</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.282926463325205</v>
+        <v>0.5619982177191259</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5619982177191259</v>
-      </c>
-      <c r="F26" t="n">
         <v>0.2477578868622678</v>
       </c>
     </row>
@@ -1028,19 +936,16 @@
           <t>Brequinar_2H03</t>
         </is>
       </c>
-      <c r="B27" s="1" t="n">
-        <v>1</v>
+      <c r="B27" t="n">
+        <v>0.1915866374214793</v>
       </c>
       <c r="C27" t="n">
-        <v>0.1915866374214793</v>
+        <v>0.410549012910892</v>
       </c>
       <c r="D27" t="n">
-        <v>0.410549012910892</v>
+        <v>0.6395832650291077</v>
       </c>
       <c r="E27" t="n">
-        <v>0.6395832650291077</v>
-      </c>
-      <c r="F27" t="n">
         <v>-0.8488853996488374</v>
       </c>
     </row>
@@ -1050,19 +955,16 @@
           <t>Cabozantinib_2G04</t>
         </is>
       </c>
-      <c r="B28" s="1" t="n">
-        <v>1</v>
+      <c r="B28" t="n">
+        <v>1.453093941562855</v>
       </c>
       <c r="C28" t="n">
-        <v>1.453093941562855</v>
+        <v>0.8270220903243788</v>
       </c>
       <c r="D28" t="n">
-        <v>0.8270220903243788</v>
+        <v>1.953476537603065</v>
       </c>
       <c r="E28" t="n">
-        <v>1.953476537603065</v>
-      </c>
-      <c r="F28" t="n">
         <v>0.2370636252182942</v>
       </c>
     </row>
@@ -1072,19 +974,16 @@
           <t>Camostat_1E10</t>
         </is>
       </c>
-      <c r="B29" s="1" t="n">
-        <v>1</v>
+      <c r="B29" t="n">
+        <v>-0.904268838301574</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.904268838301574</v>
+        <v>0.9916613437320282</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9916613437320282</v>
+        <v>-0.3690070200523907</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.3690070200523907</v>
-      </c>
-      <c r="F29" t="n">
         <v>-1.186207832333319</v>
       </c>
     </row>
@@ -1094,19 +993,16 @@
           <t>Captopril_1F07</t>
         </is>
       </c>
-      <c r="B30" s="1" t="n">
-        <v>1</v>
+      <c r="B30" t="n">
+        <v>-0.2292356294228719</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.2292356294228719</v>
+        <v>0.36895661477044</v>
       </c>
       <c r="D30" t="n">
-        <v>0.36895661477044</v>
+        <v>-0.01434192493541306</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.01434192493541306</v>
-      </c>
-      <c r="F30" t="n">
         <v>-0.7025274010906619</v>
       </c>
     </row>
@@ -1116,19 +1012,16 @@
           <t>Celecoxib_2G03</t>
         </is>
       </c>
-      <c r="B31" s="1" t="n">
-        <v>1</v>
+      <c r="B31" t="n">
+        <v>0.1427595144511974</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1427595144511974</v>
+        <v>-1.064170533628644</v>
       </c>
       <c r="D31" t="n">
-        <v>-1.064170533628644</v>
+        <v>0.3924488341862304</v>
       </c>
       <c r="E31" t="n">
-        <v>0.3924488341862304</v>
-      </c>
-      <c r="F31" t="n">
         <v>0.3431651558749501</v>
       </c>
     </row>
@@ -1138,19 +1031,16 @@
           <t>Chlormidazole_2C05</t>
         </is>
       </c>
-      <c r="B32" s="1" t="n">
-        <v>1</v>
+      <c r="B32" t="n">
+        <v>0.08927927953664092</v>
       </c>
       <c r="C32" t="n">
-        <v>0.08927927953664092</v>
+        <v>0.7110191508836915</v>
       </c>
       <c r="D32" t="n">
-        <v>0.7110191508836915</v>
+        <v>0.2835949626889647</v>
       </c>
       <c r="E32" t="n">
-        <v>0.2835949626889647</v>
-      </c>
-      <c r="F32" t="n">
         <v>-0.08085632471683322</v>
       </c>
     </row>
@@ -1160,19 +1050,16 @@
           <t>Chlorothiazide_2H08</t>
         </is>
       </c>
-      <c r="B33" s="1" t="n">
-        <v>1</v>
+      <c r="B33" t="n">
+        <v>0.1252933037839825</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1252933037839825</v>
+        <v>-0.02678528029677012</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.02678528029677012</v>
+        <v>0.02904954949707907</v>
       </c>
       <c r="E33" t="n">
-        <v>0.02904954949707907</v>
-      </c>
-      <c r="F33" t="n">
         <v>0.4024121643867344</v>
       </c>
     </row>
@@ -1182,19 +1069,16 @@
           <t>Chlorpromazine_1B02</t>
         </is>
       </c>
-      <c r="B34" s="1" t="n">
-        <v>1</v>
+      <c r="B34" t="n">
+        <v>0.4666414351722398</v>
       </c>
       <c r="C34" t="n">
-        <v>0.4666414351722398</v>
+        <v>0.3772204995775503</v>
       </c>
       <c r="D34" t="n">
-        <v>0.3772204995775503</v>
+        <v>0.004634920976081553</v>
       </c>
       <c r="E34" t="n">
-        <v>0.004634920976081553</v>
-      </c>
-      <c r="F34" t="n">
         <v>-0.008924600062308229</v>
       </c>
     </row>
@@ -1204,19 +1088,16 @@
           <t>Ciclesonide_1A08</t>
         </is>
       </c>
-      <c r="B35" s="1" t="n">
-        <v>1</v>
+      <c r="B35" t="n">
+        <v>-0.5248730762367769</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.5248730762367769</v>
+        <v>0.6335864907041235</v>
       </c>
       <c r="D35" t="n">
-        <v>0.6335864907041235</v>
+        <v>-0.5805879905692412</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.5805879905692412</v>
-      </c>
-      <c r="F35" t="n">
         <v>-0.7655084134638567</v>
       </c>
     </row>
@@ -1226,19 +1107,16 @@
           <t>Clemastine_2D07</t>
         </is>
       </c>
-      <c r="B36" s="1" t="n">
-        <v>1</v>
+      <c r="B36" t="n">
+        <v>0.3099197447868817</v>
       </c>
       <c r="C36" t="n">
-        <v>0.3099197447868817</v>
+        <v>-0.3683711826449275</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.3683711826449275</v>
+        <v>0.1931428002458243</v>
       </c>
       <c r="E36" t="n">
-        <v>0.1931428002458243</v>
-      </c>
-      <c r="F36" t="n">
         <v>0.1449490966615319</v>
       </c>
     </row>
@@ -1248,19 +1126,16 @@
           <t>Clomipramine_1E08</t>
         </is>
       </c>
-      <c r="B37" s="1" t="n">
-        <v>1</v>
+      <c r="B37" t="n">
+        <v>0.245199084023848</v>
       </c>
       <c r="C37" t="n">
-        <v>0.245199084023848</v>
+        <v>1.382378237162311</v>
       </c>
       <c r="D37" t="n">
-        <v>1.382378237162311</v>
+        <v>0.6673173396217909</v>
       </c>
       <c r="E37" t="n">
-        <v>0.6673173396217909</v>
-      </c>
-      <c r="F37" t="n">
         <v>-1.168844135947793</v>
       </c>
     </row>
@@ -1270,19 +1145,16 @@
           <t>Cloperastine_2D06</t>
         </is>
       </c>
-      <c r="B38" s="1" t="n">
-        <v>1</v>
+      <c r="B38" t="n">
+        <v>0.7770722972046727</v>
       </c>
       <c r="C38" t="n">
-        <v>0.7770722972046727</v>
+        <v>0.5647675051453397</v>
       </c>
       <c r="D38" t="n">
-        <v>0.5647675051453397</v>
+        <v>0.5174412479156265</v>
       </c>
       <c r="E38" t="n">
-        <v>0.5174412479156265</v>
-      </c>
-      <c r="F38" t="n">
         <v>-0.1751298733765081</v>
       </c>
     </row>
@@ -1292,8 +1164,8 @@
           <t>Control</t>
         </is>
       </c>
-      <c r="B39" s="1" t="n">
-        <v>1</v>
+      <c r="B39" t="n">
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -1302,9 +1174,6 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
         <v>-4.301484947685056e-16</v>
       </c>
     </row>
@@ -1314,19 +1183,16 @@
           <t>Cycloheximide_2D11</t>
         </is>
       </c>
-      <c r="B40" s="1" t="n">
-        <v>1</v>
+      <c r="B40" t="n">
+        <v>0.7375295693641166</v>
       </c>
       <c r="C40" t="n">
-        <v>0.7375295693641166</v>
+        <v>0.1675784682791557</v>
       </c>
       <c r="D40" t="n">
-        <v>0.1675784682791557</v>
+        <v>0.06595230742929564</v>
       </c>
       <c r="E40" t="n">
-        <v>0.06595230742929564</v>
-      </c>
-      <c r="F40" t="n">
         <v>-0.207881616567201</v>
       </c>
     </row>
@@ -1336,19 +1202,16 @@
           <t>Cyclosporine_1F04</t>
         </is>
       </c>
-      <c r="B41" s="1" t="n">
-        <v>1</v>
+      <c r="B41" t="n">
+        <v>0.3875719902101739</v>
       </c>
       <c r="C41" t="n">
-        <v>0.3875719902101739</v>
+        <v>0.3427007066173481</v>
       </c>
       <c r="D41" t="n">
-        <v>0.3427007066173481</v>
+        <v>0.1853422680486227</v>
       </c>
       <c r="E41" t="n">
-        <v>0.1853422680486227</v>
-      </c>
-      <c r="F41" t="n">
         <v>-0.1952264019766121</v>
       </c>
     </row>
@@ -1358,19 +1221,16 @@
           <t>Dabrafenib_2B08</t>
         </is>
       </c>
-      <c r="B42" s="1" t="n">
-        <v>1</v>
+      <c r="B42" t="n">
+        <v>0.7796034056522817</v>
       </c>
       <c r="C42" t="n">
-        <v>0.7796034056522817</v>
+        <v>-0.2880449945612448</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.2880449945612448</v>
+        <v>0.08081033609433365</v>
       </c>
       <c r="E42" t="n">
-        <v>0.08081033609433365</v>
-      </c>
-      <c r="F42" t="n">
         <v>0.4351194812081736</v>
       </c>
     </row>
@@ -1380,19 +1240,16 @@
           <t>Daclatasvir_1C04</t>
         </is>
       </c>
-      <c r="B43" s="1" t="n">
-        <v>1</v>
+      <c r="B43" t="n">
+        <v>-0.2206259400235463</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.2206259400235463</v>
+        <v>0.000480383506287245</v>
       </c>
       <c r="D43" t="n">
-        <v>0.000480383506287245</v>
+        <v>-0.09593695070765605</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.09593695070765605</v>
-      </c>
-      <c r="F43" t="n">
         <v>-0.6111060598304683</v>
       </c>
     </row>
@@ -1402,19 +1259,16 @@
           <t>Danusertib_2F04</t>
         </is>
       </c>
-      <c r="B44" s="1" t="n">
-        <v>1</v>
+      <c r="B44" t="n">
+        <v>0.01211574673524506</v>
       </c>
       <c r="C44" t="n">
-        <v>0.01211574673524506</v>
+        <v>-0.3690144149941976</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.3690144149941976</v>
+        <v>0.06995390013774465</v>
       </c>
       <c r="E44" t="n">
-        <v>0.06995390013774465</v>
-      </c>
-      <c r="F44" t="n">
         <v>0.3074803279086114</v>
       </c>
     </row>
@@ -1424,19 +1278,16 @@
           <t>Dapivirine_2B09</t>
         </is>
       </c>
-      <c r="B45" s="1" t="n">
-        <v>1</v>
+      <c r="B45" t="n">
+        <v>1.605061995657834</v>
       </c>
       <c r="C45" t="n">
-        <v>1.605061995657834</v>
+        <v>0.4438908089846302</v>
       </c>
       <c r="D45" t="n">
-        <v>0.4438908089846302</v>
+        <v>0.4494950170004858</v>
       </c>
       <c r="E45" t="n">
-        <v>0.4494950170004858</v>
-      </c>
-      <c r="F45" t="n">
         <v>-0.0180597156527279</v>
       </c>
     </row>
@@ -1446,19 +1297,16 @@
           <t>Darifenacin_2F08</t>
         </is>
       </c>
-      <c r="B46" s="1" t="n">
-        <v>1</v>
+      <c r="B46" t="n">
+        <v>-0.3649903740796017</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.3649903740796017</v>
+        <v>0.440090261898919</v>
       </c>
       <c r="D46" t="n">
-        <v>0.440090261898919</v>
+        <v>-0.05217835183713261</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.05217835183713261</v>
-      </c>
-      <c r="F46" t="n">
         <v>-0.2306162975300267</v>
       </c>
     </row>
@@ -1468,19 +1316,16 @@
           <t>Darunavir_2H02</t>
         </is>
       </c>
-      <c r="B47" s="1" t="n">
-        <v>1</v>
+      <c r="B47" t="n">
+        <v>0.2032175704319614</v>
       </c>
       <c r="C47" t="n">
-        <v>0.2032175704319614</v>
+        <v>0.5355082273517713</v>
       </c>
       <c r="D47" t="n">
-        <v>0.5355082273517713</v>
+        <v>0.7169041482083482</v>
       </c>
       <c r="E47" t="n">
-        <v>0.7169041482083482</v>
-      </c>
-      <c r="F47" t="n">
         <v>-0.6483784780439696</v>
       </c>
     </row>
@@ -1490,19 +1335,16 @@
           <t>Delanzomib_2H04</t>
         </is>
       </c>
-      <c r="B48" s="1" t="n">
-        <v>1</v>
+      <c r="B48" t="n">
+        <v>-0.9174095518483673</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.9174095518483673</v>
+        <v>-0.3056323957552149</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.3056323957552149</v>
+        <v>-0.9359672011059127</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.9359672011059127</v>
-      </c>
-      <c r="F48" t="n">
         <v>0.2287582488800807</v>
       </c>
     </row>
@@ -1512,19 +1354,16 @@
           <t>Delavirdine_2H05</t>
         </is>
       </c>
-      <c r="B49" s="1" t="n">
-        <v>1</v>
+      <c r="B49" t="n">
+        <v>0.574755936534504</v>
       </c>
       <c r="C49" t="n">
-        <v>0.574755936534504</v>
+        <v>0.1264963144687554</v>
       </c>
       <c r="D49" t="n">
-        <v>0.1264963144687554</v>
+        <v>0.8547624417094832</v>
       </c>
       <c r="E49" t="n">
-        <v>0.8547624417094832</v>
-      </c>
-      <c r="F49" t="n">
         <v>0.08744176996827759</v>
       </c>
     </row>
@@ -1534,19 +1373,16 @@
           <t>Desmethyl ferroquine_2E11</t>
         </is>
       </c>
-      <c r="B50" s="1" t="n">
-        <v>1</v>
+      <c r="B50" t="n">
+        <v>-0.3251098211045032</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.3251098211045032</v>
+        <v>0.01590680909890853</v>
       </c>
       <c r="D50" t="n">
-        <v>0.01590680909890853</v>
+        <v>-0.5591901716047333</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.5591901716047333</v>
-      </c>
-      <c r="F50" t="n">
         <v>0.1940409834145038</v>
       </c>
     </row>
@@ -1556,19 +1392,16 @@
           <t>Digitoxin_2C04</t>
         </is>
       </c>
-      <c r="B51" s="1" t="n">
-        <v>1</v>
+      <c r="B51" t="n">
+        <v>1.021679932030368</v>
       </c>
       <c r="C51" t="n">
-        <v>1.021679932030368</v>
+        <v>0.9207035273623022</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9207035273623022</v>
+        <v>1.476694162160699</v>
       </c>
       <c r="E51" t="n">
-        <v>1.476694162160699</v>
-      </c>
-      <c r="F51" t="n">
         <v>-0.3229594943692331</v>
       </c>
     </row>
@@ -1578,19 +1411,16 @@
           <t>Digoxin_1D02</t>
         </is>
       </c>
-      <c r="B52" s="1" t="n">
-        <v>1</v>
+      <c r="B52" t="n">
+        <v>0.1152659644611811</v>
       </c>
       <c r="C52" t="n">
-        <v>0.1152659644611811</v>
+        <v>-0.01938284362062455</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.01938284362062455</v>
+        <v>0.03437530575632084</v>
       </c>
       <c r="E52" t="n">
-        <v>0.03437530575632084</v>
-      </c>
-      <c r="F52" t="n">
         <v>-0.0649459352365095</v>
       </c>
     </row>
@@ -1600,19 +1430,16 @@
           <t>Doravirine_2D10</t>
         </is>
       </c>
-      <c r="B53" s="1" t="n">
-        <v>1</v>
+      <c r="B53" t="n">
+        <v>0.5514696961026997</v>
       </c>
       <c r="C53" t="n">
-        <v>0.5514696961026997</v>
+        <v>0.2927440705822198</v>
       </c>
       <c r="D53" t="n">
-        <v>0.2927440705822198</v>
+        <v>0.1271136337815972</v>
       </c>
       <c r="E53" t="n">
-        <v>0.1271136337815972</v>
-      </c>
-      <c r="F53" t="n">
         <v>0.01128139753260224</v>
       </c>
     </row>
@@ -1622,19 +1449,16 @@
           <t>Doxorubicin_2A05</t>
         </is>
       </c>
-      <c r="B54" s="1" t="n">
-        <v>1</v>
+      <c r="B54" t="n">
+        <v>-0.3573448231191909</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.3573448231191909</v>
+        <v>-0.1604984568672518</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.1604984568672518</v>
+        <v>-0.4493531669274639</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.4493531669274639</v>
-      </c>
-      <c r="F54" t="n">
         <v>-0.06651895173221371</v>
       </c>
     </row>
@@ -1644,19 +1468,16 @@
           <t>Doxycycline_1E05</t>
         </is>
       </c>
-      <c r="B55" s="1" t="n">
-        <v>1</v>
+      <c r="B55" t="n">
+        <v>-0.1771929577456249</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.1771929577456249</v>
+        <v>0.717696477994239</v>
       </c>
       <c r="D55" t="n">
-        <v>0.717696477994239</v>
+        <v>0.02064386059631276</v>
       </c>
       <c r="E55" t="n">
-        <v>0.02064386059631276</v>
-      </c>
-      <c r="F55" t="n">
         <v>-0.5644499159690426</v>
       </c>
     </row>
@@ -1666,19 +1487,16 @@
           <t>Drotaverine_1B07</t>
         </is>
       </c>
-      <c r="B56" s="1" t="n">
-        <v>1</v>
+      <c r="B56" t="n">
+        <v>-0.04691289974301778</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.04691289974301778</v>
+        <v>0.4008344765978364</v>
       </c>
       <c r="D56" t="n">
-        <v>0.4008344765978364</v>
+        <v>-0.2734718393006008</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.2734718393006008</v>
-      </c>
-      <c r="F56" t="n">
         <v>-0.3036953349476318</v>
       </c>
     </row>
@@ -1688,19 +1506,16 @@
           <t>Dutacatib_2C07</t>
         </is>
       </c>
-      <c r="B57" s="1" t="n">
-        <v>1</v>
+      <c r="B57" t="n">
+        <v>-0.718299224868386</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.718299224868386</v>
+        <v>-0.3608862067627066</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.3608862067627066</v>
+        <v>-0.4694920275755154</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.4694920275755154</v>
-      </c>
-      <c r="F57" t="n">
         <v>0.03537708400356773</v>
       </c>
     </row>
@@ -1710,19 +1525,16 @@
           <t>E 52862_2D09</t>
         </is>
       </c>
-      <c r="B58" s="1" t="n">
-        <v>1</v>
+      <c r="B58" t="n">
+        <v>-0.03267040098935773</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.03267040098935773</v>
+        <v>0.4083518188947405</v>
       </c>
       <c r="D58" t="n">
-        <v>0.4083518188947405</v>
+        <v>-0.2287170985309586</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.2287170985309586</v>
-      </c>
-      <c r="F58" t="n">
         <v>-0.2889876867513992</v>
       </c>
     </row>
@@ -1732,19 +1544,16 @@
           <t>Emetine_1E06</t>
         </is>
       </c>
-      <c r="B59" s="1" t="n">
-        <v>1</v>
+      <c r="B59" t="n">
+        <v>-1.205698498154111</v>
       </c>
       <c r="C59" t="n">
-        <v>-1.205698498154111</v>
+        <v>0.0213708922401295</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0213708922401295</v>
+        <v>-0.7276673835595691</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.7276673835595691</v>
-      </c>
-      <c r="F59" t="n">
         <v>-0.9861622234435961</v>
       </c>
     </row>
@@ -1754,19 +1563,16 @@
           <t>Entacapone_2B05</t>
         </is>
       </c>
-      <c r="B60" s="1" t="n">
-        <v>1</v>
+      <c r="B60" t="n">
+        <v>0.3234828775250572</v>
       </c>
       <c r="C60" t="n">
-        <v>0.3234828775250572</v>
+        <v>0.04215737346306108</v>
       </c>
       <c r="D60" t="n">
-        <v>0.04215737346306108</v>
+        <v>-0.2320886198165729</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.2320886198165729</v>
-      </c>
-      <c r="F60" t="n">
         <v>-0.03428220556188587</v>
       </c>
     </row>
@@ -1776,19 +1582,16 @@
           <t>Eszopiclone_2C10</t>
         </is>
       </c>
-      <c r="B61" s="1" t="n">
-        <v>1</v>
+      <c r="B61" t="n">
+        <v>-0.2190763318101232</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.2190763318101232</v>
+        <v>0.3523851409120639</v>
       </c>
       <c r="D61" t="n">
-        <v>0.3523851409120639</v>
+        <v>-0.392373608225802</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.392373608225802</v>
-      </c>
-      <c r="F61" t="n">
         <v>-0.1118339102937954</v>
       </c>
     </row>
@@ -1798,19 +1601,16 @@
           <t>Ethaverine_1A10</t>
         </is>
       </c>
-      <c r="B62" s="1" t="n">
-        <v>1</v>
+      <c r="B62" t="n">
+        <v>0.116592157009412</v>
       </c>
       <c r="C62" t="n">
-        <v>0.116592157009412</v>
+        <v>-0.4751665407298662</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.4751665407298662</v>
+        <v>-0.6165247868100493</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.6165247868100493</v>
-      </c>
-      <c r="F62" t="n">
         <v>-0.2939722661601734</v>
       </c>
     </row>
@@ -1820,19 +1620,16 @@
           <t>Favipiravir_1D10</t>
         </is>
       </c>
-      <c r="B63" s="1" t="n">
-        <v>1</v>
+      <c r="B63" t="n">
+        <v>0.236228823734119</v>
       </c>
       <c r="C63" t="n">
-        <v>0.236228823734119</v>
+        <v>-0.1147403556294705</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.1147403556294705</v>
+        <v>0.1726809012191548</v>
       </c>
       <c r="E63" t="n">
-        <v>0.1726809012191548</v>
-      </c>
-      <c r="F63" t="n">
         <v>-0.1844664433998444</v>
       </c>
     </row>
@@ -1842,19 +1639,16 @@
           <t>Ferroquine_1G09</t>
         </is>
       </c>
-      <c r="B64" s="1" t="n">
-        <v>1</v>
+      <c r="B64" t="n">
+        <v>-0.2493985915539066</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.2493985915539066</v>
+        <v>0.1390694813412922</v>
       </c>
       <c r="D64" t="n">
-        <v>0.1390694813412922</v>
+        <v>-0.5450085088435275</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.5450085088435275</v>
-      </c>
-      <c r="F64" t="n">
         <v>-0.4269861318405139</v>
       </c>
     </row>
@@ -1864,19 +1658,16 @@
           <t>Fluconazole_2A11</t>
         </is>
       </c>
-      <c r="B65" s="1" t="n">
-        <v>1</v>
+      <c r="B65" t="n">
+        <v>0.7532824293196918</v>
       </c>
       <c r="C65" t="n">
-        <v>0.7532824293196918</v>
+        <v>0.2043499920807101</v>
       </c>
       <c r="D65" t="n">
-        <v>0.2043499920807101</v>
+        <v>0.989292756207299</v>
       </c>
       <c r="E65" t="n">
-        <v>0.989292756207299</v>
-      </c>
-      <c r="F65" t="n">
         <v>0.1694264711554165</v>
       </c>
     </row>
@@ -1886,19 +1677,16 @@
           <t>Fluphenazine_1H06</t>
         </is>
       </c>
-      <c r="B66" s="1" t="n">
-        <v>1</v>
+      <c r="B66" t="n">
+        <v>0.02044804815269152</v>
       </c>
       <c r="C66" t="n">
-        <v>0.02044804815269152</v>
+        <v>-0.5274449864773795</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.5274449864773795</v>
+        <v>-0.7138412859532063</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.7138412859532063</v>
-      </c>
-      <c r="F66" t="n">
         <v>0.07809922043762606</v>
       </c>
     </row>
@@ -1908,19 +1696,16 @@
           <t>Fluspirilene_2A02</t>
         </is>
       </c>
-      <c r="B67" s="1" t="n">
-        <v>1</v>
+      <c r="B67" t="n">
+        <v>-0.270541954625504</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.270541954625504</v>
+        <v>-0.8134581585447077</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.8134581585447077</v>
+        <v>-0.2280147210045997</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.2280147210045997</v>
-      </c>
-      <c r="F67" t="n">
         <v>0.2693104731391336</v>
       </c>
     </row>
@@ -1930,19 +1715,16 @@
           <t>GSK 983_1C07</t>
         </is>
       </c>
-      <c r="B68" s="1" t="n">
-        <v>1</v>
+      <c r="B68" t="n">
+        <v>0.1279235751615374</v>
       </c>
       <c r="C68" t="n">
-        <v>0.1279235751615374</v>
+        <v>0.3565982351310621</v>
       </c>
       <c r="D68" t="n">
-        <v>0.3565982351310621</v>
+        <v>0.08086461659816799</v>
       </c>
       <c r="E68" t="n">
-        <v>0.08086461659816799</v>
-      </c>
-      <c r="F68" t="n">
         <v>-0.707479557984112</v>
       </c>
     </row>
@@ -1952,19 +1734,16 @@
           <t>GSK-369796_1C03</t>
         </is>
       </c>
-      <c r="B69" s="1" t="n">
-        <v>1</v>
+      <c r="B69" t="n">
+        <v>0.1150474578757286</v>
       </c>
       <c r="C69" t="n">
-        <v>0.1150474578757286</v>
+        <v>0.484110899581697</v>
       </c>
       <c r="D69" t="n">
-        <v>0.484110899581697</v>
+        <v>0.3855564605165404</v>
       </c>
       <c r="E69" t="n">
-        <v>0.3855564605165404</v>
-      </c>
-      <c r="F69" t="n">
         <v>-0.3213978928227204</v>
       </c>
     </row>
@@ -1974,19 +1753,16 @@
           <t>Halofantrine_1D05</t>
         </is>
       </c>
-      <c r="B70" s="1" t="n">
-        <v>1</v>
+      <c r="B70" t="n">
+        <v>0.3826982668727473</v>
       </c>
       <c r="C70" t="n">
-        <v>0.3826982668727473</v>
+        <v>0.8503184910112733</v>
       </c>
       <c r="D70" t="n">
-        <v>0.8503184910112733</v>
+        <v>1.155943305200816</v>
       </c>
       <c r="E70" t="n">
-        <v>1.155943305200816</v>
-      </c>
-      <c r="F70" t="n">
         <v>-0.2537656921436162</v>
       </c>
     </row>
@@ -1996,19 +1772,16 @@
           <t>Haloperidol_1H07</t>
         </is>
       </c>
-      <c r="B71" s="1" t="n">
-        <v>1</v>
+      <c r="B71" t="n">
+        <v>0.1564480586147932</v>
       </c>
       <c r="C71" t="n">
-        <v>0.1564480586147932</v>
+        <v>0.5479765057510211</v>
       </c>
       <c r="D71" t="n">
-        <v>0.5479765057510211</v>
+        <v>-0.02493846862937847</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.02493846862937847</v>
-      </c>
-      <c r="F71" t="n">
         <v>-0.5325819047190382</v>
       </c>
     </row>
@@ -2018,19 +1791,16 @@
           <t>Hanfangchin B_2B04</t>
         </is>
       </c>
-      <c r="B72" s="1" t="n">
-        <v>1</v>
+      <c r="B72" t="n">
+        <v>0.6173821970434624</v>
       </c>
       <c r="C72" t="n">
-        <v>0.6173821970434624</v>
+        <v>0.6791944722931947</v>
       </c>
       <c r="D72" t="n">
-        <v>0.6791944722931947</v>
+        <v>-0.4685277756545879</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.4685277756545879</v>
-      </c>
-      <c r="F72" t="n">
         <v>-0.799314890615478</v>
       </c>
     </row>
@@ -2040,19 +1810,16 @@
           <t>Hydroxychloroquine_1F11</t>
         </is>
       </c>
-      <c r="B73" s="1" t="n">
-        <v>1</v>
+      <c r="B73" t="n">
+        <v>0.384892124851513</v>
       </c>
       <c r="C73" t="n">
-        <v>0.384892124851513</v>
+        <v>0.3146593756406581</v>
       </c>
       <c r="D73" t="n">
-        <v>0.3146593756406581</v>
+        <v>0.2346940964124314</v>
       </c>
       <c r="E73" t="n">
-        <v>0.2346940964124314</v>
-      </c>
-      <c r="F73" t="n">
         <v>-0.2406800527270312</v>
       </c>
     </row>
@@ -2062,19 +1829,16 @@
           <t>Hydroxyprogesterone_1E02</t>
         </is>
       </c>
-      <c r="B74" s="1" t="n">
-        <v>1</v>
+      <c r="B74" t="n">
+        <v>-0.316718542347657</v>
       </c>
       <c r="C74" t="n">
-        <v>-0.316718542347657</v>
+        <v>0.0516857313537891</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0516857313537891</v>
+        <v>-0.3391203619159846</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.3391203619159846</v>
-      </c>
-      <c r="F74" t="n">
         <v>-0.5355693652785535</v>
       </c>
     </row>
@@ -2084,19 +1848,16 @@
           <t>Idelalisib_2F07</t>
         </is>
       </c>
-      <c r="B75" s="1" t="n">
-        <v>1</v>
+      <c r="B75" t="n">
+        <v>-0.27893535574099</v>
       </c>
       <c r="C75" t="n">
-        <v>-0.27893535574099</v>
+        <v>-0.2070963193205142</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.2070963193205142</v>
+        <v>0.0575543771367057</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0575543771367057</v>
-      </c>
-      <c r="F75" t="n">
         <v>-0.1133171627059987</v>
       </c>
     </row>
@@ -2106,19 +1867,16 @@
           <t>Imatinib_1H05</t>
         </is>
       </c>
-      <c r="B76" s="1" t="n">
-        <v>1</v>
+      <c r="B76" t="n">
+        <v>-0.05128191844607213</v>
       </c>
       <c r="C76" t="n">
-        <v>-0.05128191844607213</v>
+        <v>0.4102841271554695</v>
       </c>
       <c r="D76" t="n">
-        <v>0.4102841271554695</v>
+        <v>0.05449940985144158</v>
       </c>
       <c r="E76" t="n">
-        <v>0.05449940985144158</v>
-      </c>
-      <c r="F76" t="n">
         <v>-0.2458368928388913</v>
       </c>
     </row>
@@ -2128,19 +1886,16 @@
           <t>Indinavir_2H06</t>
         </is>
       </c>
-      <c r="B77" s="1" t="n">
-        <v>1</v>
+      <c r="B77" t="n">
+        <v>-0.11811640734319</v>
       </c>
       <c r="C77" t="n">
-        <v>-0.11811640734319</v>
+        <v>0.4859520382761608</v>
       </c>
       <c r="D77" t="n">
-        <v>0.4859520382761608</v>
+        <v>0.4779088518491336</v>
       </c>
       <c r="E77" t="n">
-        <v>0.4779088518491336</v>
-      </c>
-      <c r="F77" t="n">
         <v>0.07538727222954855</v>
       </c>
     </row>
@@ -2150,19 +1905,16 @@
           <t>Indomethacin_1F06</t>
         </is>
       </c>
-      <c r="B78" s="1" t="n">
-        <v>1</v>
+      <c r="B78" t="n">
+        <v>-0.2749862607684749</v>
       </c>
       <c r="C78" t="n">
-        <v>-0.2749862607684749</v>
+        <v>-0.4626122464699254</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.4626122464699254</v>
+        <v>-0.5568488387362517</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.5568488387362517</v>
-      </c>
-      <c r="F78" t="n">
         <v>0.3380048335907382</v>
       </c>
     </row>
@@ -2172,19 +1924,16 @@
           <t>Itraconazole_1C06</t>
         </is>
       </c>
-      <c r="B79" s="1" t="n">
-        <v>1</v>
+      <c r="B79" t="n">
+        <v>-0.02801340277404251</v>
       </c>
       <c r="C79" t="n">
-        <v>-0.02801340277404251</v>
+        <v>0.7943019560060046</v>
       </c>
       <c r="D79" t="n">
-        <v>0.7943019560060046</v>
+        <v>0.5064860853013345</v>
       </c>
       <c r="E79" t="n">
-        <v>0.5064860853013345</v>
-      </c>
-      <c r="F79" t="n">
         <v>-0.2131273339745219</v>
       </c>
     </row>
@@ -2194,2021 +1943,1597 @@
           <t>Ivermectin_1F05</t>
         </is>
       </c>
-      <c r="B80" s="1" t="n">
-        <v>5</v>
+      <c r="B80" t="n">
+        <v>1.269121662141448</v>
       </c>
       <c r="C80" t="n">
-        <v>2.184687101513084</v>
+        <v>-1.155468753359017</v>
       </c>
       <c r="D80" t="n">
-        <v>-1.311578121352789</v>
+        <v>2.290495540197476</v>
       </c>
       <c r="E80" t="n">
-        <v>1.977491611320569</v>
-      </c>
-      <c r="F80" t="n">
-        <v>2.317001505868029</v>
+        <v>2.528734194301151</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="n"/>
-      <c r="B81" s="1" t="n">
-        <v>1</v>
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>JQ 1_2D03</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.7854519192534317</v>
       </c>
       <c r="C81" t="n">
-        <v>0.5479066707926816</v>
+        <v>0.5550543233920194</v>
       </c>
       <c r="D81" t="n">
-        <v>-1.378868614661273</v>
+        <v>0.164237832066734</v>
       </c>
       <c r="E81" t="n">
-        <v>2.182956800385434</v>
-      </c>
-      <c r="F81" t="n">
-        <v>2.223920963495727</v>
+        <v>-0.4972329630814895</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>JQ 1_2D03</t>
-        </is>
-      </c>
-      <c r="B82" s="1" t="n">
-        <v>1</v>
+          <t>Ketoconazole_1B06</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0.4796607165559593</v>
       </c>
       <c r="C82" t="n">
-        <v>0.7854519192534317</v>
+        <v>0.3523191290405451</v>
       </c>
       <c r="D82" t="n">
-        <v>0.5550543233920194</v>
+        <v>-0.03572155672959369</v>
       </c>
       <c r="E82" t="n">
-        <v>0.164237832066734</v>
-      </c>
-      <c r="F82" t="n">
-        <v>-0.4972329630814895</v>
+        <v>-0.396310159710116</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>Ketoconazole_1B06</t>
-        </is>
-      </c>
-      <c r="B83" s="1" t="n">
-        <v>1</v>
+          <t>LY 2228820_1C10</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0.2064923459748315</v>
       </c>
       <c r="C83" t="n">
-        <v>0.4796607165559593</v>
+        <v>0.7436141904106733</v>
       </c>
       <c r="D83" t="n">
-        <v>0.3523191290405451</v>
+        <v>0.3573185019340448</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.03572155672959369</v>
-      </c>
-      <c r="F83" t="n">
-        <v>-0.396310159710116</v>
+        <v>-0.4961438895887894</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>LY 2228820_1C10</t>
-        </is>
-      </c>
-      <c r="B84" s="1" t="n">
-        <v>1</v>
+          <t>Lonafarnib_1C05</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>-0.04115790841148268</v>
       </c>
       <c r="C84" t="n">
-        <v>0.2064923459748315</v>
+        <v>0.2912131985000179</v>
       </c>
       <c r="D84" t="n">
-        <v>0.7436141904106733</v>
+        <v>0.5341936346040705</v>
       </c>
       <c r="E84" t="n">
-        <v>0.3573185019340448</v>
-      </c>
-      <c r="F84" t="n">
-        <v>-0.4961438895887894</v>
+        <v>-0.01181837133218715</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>Lonafarnib_1C05</t>
-        </is>
-      </c>
-      <c r="B85" s="1" t="n">
-        <v>1</v>
+          <t>Lopinavir_1H04</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>-0.2834821253594278</v>
       </c>
       <c r="C85" t="n">
-        <v>-0.04115790841148268</v>
+        <v>-0.249417947411473</v>
       </c>
       <c r="D85" t="n">
-        <v>0.2912131985000179</v>
+        <v>-0.01223162453329433</v>
       </c>
       <c r="E85" t="n">
-        <v>0.5341936346040705</v>
-      </c>
-      <c r="F85" t="n">
-        <v>-0.01181837133218715</v>
+        <v>0.09752579887567249</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>Lopinavir_1H04</t>
-        </is>
-      </c>
-      <c r="B86" s="1" t="n">
-        <v>1</v>
+          <t>Loratidine_1H09</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0.2315522938321333</v>
       </c>
       <c r="C86" t="n">
-        <v>-0.2834821253594278</v>
+        <v>0.2956804870324201</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.249417947411473</v>
+        <v>0.2793373121287037</v>
       </c>
       <c r="E86" t="n">
-        <v>-0.01223162453329433</v>
-      </c>
-      <c r="F86" t="n">
-        <v>0.09752579887567249</v>
+        <v>-0.237124225814263</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>Loratidine_1H09</t>
-        </is>
-      </c>
-      <c r="B87" s="1" t="n">
-        <v>1</v>
+          <t>Losartan_2E08</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>-0.09199133181721585</v>
       </c>
       <c r="C87" t="n">
-        <v>0.2315522938321333</v>
+        <v>0.3212194733840971</v>
       </c>
       <c r="D87" t="n">
-        <v>0.2956804870324201</v>
+        <v>-0.2774049871498455</v>
       </c>
       <c r="E87" t="n">
-        <v>0.2793373121287037</v>
-      </c>
-      <c r="F87" t="n">
-        <v>-0.237124225814263</v>
+        <v>-0.07074218395463329</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>Losartan_2E08</t>
-        </is>
-      </c>
-      <c r="B88" s="1" t="n">
-        <v>1</v>
+          <t>Lumefantrine_2B02</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.9528502624778579</v>
       </c>
       <c r="C88" t="n">
-        <v>-0.09199133181721585</v>
+        <v>-0.1800949421208166</v>
       </c>
       <c r="D88" t="n">
-        <v>0.3212194733840971</v>
+        <v>-0.06176016145253155</v>
       </c>
       <c r="E88" t="n">
-        <v>-0.2774049871498455</v>
-      </c>
-      <c r="F88" t="n">
-        <v>-0.07074218395463329</v>
+        <v>-0.1344392027339364</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>Lumefantrine_2B02</t>
-        </is>
-      </c>
-      <c r="B89" s="1" t="n">
-        <v>1</v>
+          <t>Lusutrombopag_1A03</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0.62655941359519</v>
       </c>
       <c r="C89" t="n">
-        <v>0.9528502624778579</v>
+        <v>-0.02666957137651202</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.1800949421208166</v>
+        <v>-0.5262559736569817</v>
       </c>
       <c r="E89" t="n">
-        <v>-0.06176016145253155</v>
-      </c>
-      <c r="F89" t="n">
-        <v>-0.1344392027339364</v>
+        <v>-0.522984480233585</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>Lusutrombopag_1A03</t>
-        </is>
-      </c>
-      <c r="B90" s="1" t="n">
-        <v>1</v>
+          <t>MK-2206_1G06</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.3801704534899777</v>
       </c>
       <c r="C90" t="n">
-        <v>0.62655941359519</v>
+        <v>0.7551880663571529</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.02666957137651202</v>
+        <v>0.8829066041152964</v>
       </c>
       <c r="E90" t="n">
-        <v>-0.5262559736569817</v>
-      </c>
-      <c r="F90" t="n">
-        <v>-0.522984480233585</v>
+        <v>-0.2672650527220914</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>MK-2206_1G06</t>
-        </is>
-      </c>
-      <c r="B91" s="1" t="n">
-        <v>1</v>
+          <t>MRT 68601_2E03</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.5386194544025046</v>
       </c>
       <c r="C91" t="n">
-        <v>0.3801704534899777</v>
+        <v>-0.4148164750943715</v>
       </c>
       <c r="D91" t="n">
-        <v>0.7551880663571529</v>
+        <v>0.1644753784451281</v>
       </c>
       <c r="E91" t="n">
-        <v>0.8829066041152964</v>
-      </c>
-      <c r="F91" t="n">
-        <v>-0.2672650527220914</v>
+        <v>0.1154628902696445</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>MRT 68601_2E03</t>
-        </is>
-      </c>
-      <c r="B92" s="1" t="n">
-        <v>1</v>
+          <t>Manidipine_1G03</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0.8536487870991653</v>
       </c>
       <c r="C92" t="n">
-        <v>0.5386194544025046</v>
+        <v>0.3599285892360157</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.4148164750943715</v>
+        <v>1.131411907723572</v>
       </c>
       <c r="E92" t="n">
-        <v>0.1644753784451281</v>
-      </c>
-      <c r="F92" t="n">
-        <v>0.1154628902696445</v>
+        <v>0.4085735023791953</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>Manidipine_1G03</t>
-        </is>
-      </c>
-      <c r="B93" s="1" t="n">
-        <v>1</v>
+          <t>Merimepodib_2D08</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>0.2518762612575318</v>
       </c>
       <c r="C93" t="n">
-        <v>0.908365496725829</v>
+        <v>0.001345077437888515</v>
       </c>
       <c r="D93" t="n">
-        <v>0.4016420321219515</v>
+        <v>0.219466016775159</v>
       </c>
       <c r="E93" t="n">
-        <v>1.265231749484873</v>
-      </c>
-      <c r="F93" t="n">
-        <v>0.3265604863229901</v>
+        <v>0.2593109093582156</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="n"/>
-      <c r="B94" s="1" t="n">
-        <v>0.5</v>
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>Metformin_2A10</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>-0.2885809052882106</v>
       </c>
       <c r="C94" t="n">
-        <v>-0.115298104046268</v>
+        <v>-0.9292084414447036</v>
       </c>
       <c r="D94" t="n">
-        <v>0.3579303450268081</v>
+        <v>0.3643708825694489</v>
       </c>
       <c r="E94" t="n">
-        <v>-0.1206359555688075</v>
-      </c>
-      <c r="F94" t="n">
-        <v>-0.4717495637724423</v>
+        <v>0.9817874320616721</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>Merimepodib_2D08</t>
-        </is>
-      </c>
-      <c r="B95" s="1" t="n">
-        <v>1</v>
+          <t>Midostaurin_1G08</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>-0.6042886812921108</v>
       </c>
       <c r="C95" t="n">
-        <v>0.2518762612575318</v>
+        <v>-0.9560863517018278</v>
       </c>
       <c r="D95" t="n">
-        <v>0.001345077437888515</v>
+        <v>-0.4117802439736739</v>
       </c>
       <c r="E95" t="n">
-        <v>0.219466016775159</v>
-      </c>
-      <c r="F95" t="n">
-        <v>0.2593109093582156</v>
+        <v>0.6411892675065783</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>Metformin_2A10</t>
-        </is>
-      </c>
-      <c r="B96" s="1" t="n">
-        <v>1</v>
+          <t>Migalastat_2A08</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>-0.9850094209615627</v>
       </c>
       <c r="C96" t="n">
-        <v>-0.2885809052882106</v>
+        <v>-0.7572251379235938</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.9292084414447036</v>
+        <v>-0.2756102861768078</v>
       </c>
       <c r="E96" t="n">
-        <v>0.3643708825694489</v>
-      </c>
-      <c r="F96" t="n">
-        <v>0.9817874320616721</v>
+        <v>0.3940219467534944</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>Midostaurin_1G08</t>
-        </is>
-      </c>
-      <c r="B97" s="1" t="n">
-        <v>1</v>
+          <t>Molnupiravir</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>0.1295813680753892</v>
       </c>
       <c r="C97" t="n">
-        <v>-0.6943452443152833</v>
+        <v>0.007168820448554378</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.8725076430398409</v>
+        <v>-0.1500702543677909</v>
       </c>
       <c r="E97" t="n">
-        <v>-0.4201745556806588</v>
-      </c>
-      <c r="F97" t="n">
-        <v>0.5824648871824138</v>
+        <v>0.0170338052639348</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="n"/>
-      <c r="B98" s="1" t="n">
-        <v>0.5</v>
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>Mycophenolic acid_2B10</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>0.9615437740689661</v>
       </c>
       <c r="C98" t="n">
-        <v>1.51799287339628</v>
+        <v>0.189263042289968</v>
       </c>
       <c r="D98" t="n">
-        <v>0.7089922072677242</v>
+        <v>-0.09611730409393757</v>
       </c>
       <c r="E98" t="n">
-        <v>0.01496391979886937</v>
-      </c>
-      <c r="F98" t="n">
-        <v>-0.5408840977974234</v>
+        <v>-0.04303053837202017</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>Migalastat_2A08</t>
-        </is>
-      </c>
-      <c r="B99" s="1" t="n">
-        <v>1</v>
+          <t>N-Desethylamodiaquine_1A07</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>-0.005373685455209543</v>
       </c>
       <c r="C99" t="n">
-        <v>-0.9850094209615627</v>
+        <v>-0.6518067822530584</v>
       </c>
       <c r="D99" t="n">
-        <v>-0.7572251379235938</v>
+        <v>-0.8438884968471562</v>
       </c>
       <c r="E99" t="n">
-        <v>-0.2756102861768078</v>
-      </c>
-      <c r="F99" t="n">
-        <v>0.3940219467534944</v>
+        <v>-0.2933091497613136</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>Molnupiravir</t>
-        </is>
-      </c>
-      <c r="B100" s="1" t="n">
-        <v>0.5</v>
+          <t>Nafamostat_1E03</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>-0.880143134528103</v>
       </c>
       <c r="C100" t="n">
-        <v>0.08505659622952547</v>
+        <v>0.213572285045128</v>
       </c>
       <c r="D100" t="n">
-        <v>-0.02632209341287585</v>
+        <v>-1.028918818135025</v>
       </c>
       <c r="E100" t="n">
-        <v>0.02342837740574459</v>
-      </c>
-      <c r="F100" t="n">
-        <v>0.135506565642988</v>
+        <v>-0.5473168016524816</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="n"/>
-      <c r="B101" s="1" t="n">
-        <v>1</v>
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>Naphtoquine_2H10</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>0.5572263322568283</v>
       </c>
       <c r="C101" t="n">
-        <v>0.1295813680753892</v>
+        <v>0.2619976711111155</v>
       </c>
       <c r="D101" t="n">
-        <v>0.007168820448554378</v>
+        <v>0.5085440466607076</v>
       </c>
       <c r="E101" t="n">
-        <v>-0.1500702543677909</v>
-      </c>
-      <c r="F101" t="n">
-        <v>0.0170338052639348</v>
+        <v>-0.1012369355152835</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="n"/>
-      <c r="B102" s="1" t="n">
-        <v>10</v>
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>Nebivolol_2F02</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>-0.6945963756640871</v>
       </c>
       <c r="C102" t="n">
-        <v>-0.2083483224108344</v>
+        <v>-0.7568947024919089</v>
       </c>
       <c r="D102" t="n">
-        <v>0.1827190872404788</v>
+        <v>-0.7856952325896703</v>
       </c>
       <c r="E102" t="n">
-        <v>-0.03803463529764863</v>
-      </c>
-      <c r="F102" t="n">
-        <v>-0.04948697203839338</v>
+        <v>0.3810265285956518</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="n"/>
-      <c r="B103" s="1" t="n">
-        <v>25</v>
+      <c r="A103" s="1" t="inlineStr">
+        <is>
+          <t>Nelfinavir_1A09</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>-0.1628607757883275</v>
       </c>
       <c r="C103" t="n">
-        <v>-0.02009181003587849</v>
+        <v>-0.3228663069896933</v>
       </c>
       <c r="D103" t="n">
-        <v>-0.006679277629543853</v>
+        <v>-0.5115144098563763</v>
       </c>
       <c r="E103" t="n">
-        <v>-0.262889193199922</v>
-      </c>
-      <c r="F103" t="n">
-        <v>0.01464358121613347</v>
+        <v>-0.3166389509388199</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>Mycophenolic acid_2B10</t>
-        </is>
-      </c>
-      <c r="B104" s="1" t="n">
-        <v>1</v>
+          <t>Niclosamide_1A02</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>0.1187349128498822</v>
       </c>
       <c r="C104" t="n">
-        <v>0.9615437740689661</v>
+        <v>0.831359222422561</v>
       </c>
       <c r="D104" t="n">
-        <v>0.189263042289968</v>
+        <v>0.6904404649804379</v>
       </c>
       <c r="E104" t="n">
-        <v>-0.09611730409393757</v>
-      </c>
-      <c r="F104" t="n">
-        <v>-0.04303053837202017</v>
+        <v>-1.139381643627865</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>N-Desethylamodiaquine_1A07</t>
-        </is>
-      </c>
-      <c r="B105" s="1" t="n">
-        <v>1</v>
+          <t>Nifedipine_2E09</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>0.1179668406086896</v>
       </c>
       <c r="C105" t="n">
-        <v>-0.005373685455209543</v>
+        <v>-0.1035242801252132</v>
       </c>
       <c r="D105" t="n">
-        <v>-0.6518067822530584</v>
+        <v>-0.1742271058115805</v>
       </c>
       <c r="E105" t="n">
-        <v>-0.8438884968471562</v>
-      </c>
-      <c r="F105" t="n">
-        <v>-0.2933091497613136</v>
+        <v>0.3369384121748608</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>Nafamostat_1E03</t>
-        </is>
-      </c>
-      <c r="B106" s="1" t="n">
-        <v>1</v>
+          <t>Nitazoxanide_1G05</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>-0.05618071775741673</v>
       </c>
       <c r="C106" t="n">
-        <v>-0.880143134528103</v>
+        <v>0.7086703545260173</v>
       </c>
       <c r="D106" t="n">
-        <v>0.213572285045128</v>
+        <v>0.5349258553080724</v>
       </c>
       <c r="E106" t="n">
-        <v>-1.028918818135025</v>
-      </c>
-      <c r="F106" t="n">
-        <v>-0.5473168016524816</v>
+        <v>-0.8656414049210316</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>Naphtoquine_2H10</t>
-        </is>
-      </c>
-      <c r="B107" s="1" t="n">
-        <v>1</v>
+          <t>ONO 5334_1A05</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>0.2180146791176002</v>
       </c>
       <c r="C107" t="n">
-        <v>0.5572263322568283</v>
+        <v>-0.1273514758069876</v>
       </c>
       <c r="D107" t="n">
-        <v>0.2619976711111155</v>
+        <v>-0.2158715929924918</v>
       </c>
       <c r="E107" t="n">
-        <v>0.5085440466607076</v>
-      </c>
-      <c r="F107" t="n">
-        <v>-0.1012369355152835</v>
+        <v>-0.2904367301896004</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>Nebivolol_2F02</t>
-        </is>
-      </c>
-      <c r="B108" s="1" t="n">
-        <v>1</v>
+          <t>Osimertinib_2D05</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>0.1478496177232384</v>
       </c>
       <c r="C108" t="n">
-        <v>-0.6945963756640871</v>
+        <v>0.6403627660737495</v>
       </c>
       <c r="D108" t="n">
-        <v>-0.7568947024919089</v>
+        <v>-0.6632502189132079</v>
       </c>
       <c r="E108" t="n">
-        <v>-0.7856952325896703</v>
-      </c>
-      <c r="F108" t="n">
-        <v>0.3810265285956518</v>
+        <v>-0.7046148228057925</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>Nelfinavir_1A09</t>
-        </is>
-      </c>
-      <c r="B109" s="1" t="n">
-        <v>1</v>
+          <t>Oxatomide_2F10</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>-0.5569785056906875</v>
       </c>
       <c r="C109" t="n">
-        <v>-0.1628607757883275</v>
+        <v>0.1090628510739194</v>
       </c>
       <c r="D109" t="n">
-        <v>-0.3228663069896933</v>
+        <v>0.1510590677158157</v>
       </c>
       <c r="E109" t="n">
-        <v>-0.5115144098563763</v>
-      </c>
-      <c r="F109" t="n">
-        <v>-0.3166389509388199</v>
+        <v>-0.293098397198873</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>Niclosamide_1A02</t>
-        </is>
-      </c>
-      <c r="B110" s="1" t="n">
-        <v>0.5</v>
+          <t>Oxyclozanide_2C03</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>0.9161988211061722</v>
       </c>
       <c r="C110" t="n">
-        <v>0.1187349128498822</v>
+        <v>0.9949159287434411</v>
       </c>
       <c r="D110" t="n">
-        <v>0.831359222422561</v>
+        <v>0.9107324905960168</v>
       </c>
       <c r="E110" t="n">
-        <v>0.6904404649804379</v>
-      </c>
-      <c r="F110" t="n">
-        <v>-1.139381643627865</v>
+        <v>-0.7164568704755737</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>Nifedipine_2E09</t>
-        </is>
-      </c>
-      <c r="B111" s="1" t="n">
-        <v>1</v>
+          <t>Ozanimod_1H08</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>-0.03338517733675356</v>
       </c>
       <c r="C111" t="n">
-        <v>0.1179668406086896</v>
+        <v>-0.01499465081914728</v>
       </c>
       <c r="D111" t="n">
-        <v>-0.1035242801252132</v>
+        <v>-0.2960114363296995</v>
       </c>
       <c r="E111" t="n">
-        <v>-0.1742271058115805</v>
-      </c>
-      <c r="F111" t="n">
-        <v>0.3369384121748608</v>
+        <v>0.2121482442972394</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>Nitazoxanide_1G05</t>
-        </is>
-      </c>
-      <c r="B112" s="1" t="n">
-        <v>1</v>
+          <t>PB 28_2C08</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>0.6862100438072893</v>
       </c>
       <c r="C112" t="n">
-        <v>-0.05618071775741673</v>
+        <v>0.6478110076774229</v>
       </c>
       <c r="D112" t="n">
-        <v>0.7086703545260173</v>
+        <v>0.4926590136029894</v>
       </c>
       <c r="E112" t="n">
-        <v>0.5349258553080724</v>
-      </c>
-      <c r="F112" t="n">
-        <v>-0.8656414049210316</v>
+        <v>-0.1150365914564877</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>ONO 5334_1A05</t>
-        </is>
-      </c>
-      <c r="B113" s="1" t="n">
-        <v>1</v>
+          <t>PD 144418_2E04</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>0.5757173291292069</v>
       </c>
       <c r="C113" t="n">
-        <v>0.2180146791176002</v>
+        <v>0.5810153430254732</v>
       </c>
       <c r="D113" t="n">
-        <v>-0.1273514758069876</v>
+        <v>0.4790478969724551</v>
       </c>
       <c r="E113" t="n">
-        <v>-0.2158715929924918</v>
-      </c>
-      <c r="F113" t="n">
-        <v>-0.2904367301896004</v>
+        <v>-0.250375962145533</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>Osimertinib_2D05</t>
-        </is>
-      </c>
-      <c r="B114" s="1" t="n">
-        <v>1</v>
+          <t>Papaverine_1C02</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>-0.4195133794557779</v>
       </c>
       <c r="C114" t="n">
-        <v>0.1478496177232384</v>
+        <v>0.4624493075030621</v>
       </c>
       <c r="D114" t="n">
-        <v>0.6403627660737495</v>
+        <v>0.2710972107861225</v>
       </c>
       <c r="E114" t="n">
-        <v>-0.6632502189132079</v>
-      </c>
-      <c r="F114" t="n">
-        <v>-0.7046148228057925</v>
+        <v>-0.2494581519626762</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>Oxatomide_2F10</t>
-        </is>
-      </c>
-      <c r="B115" s="1" t="n">
-        <v>1</v>
+          <t>Paroxetine_2G11</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>0.8914340492019756</v>
       </c>
       <c r="C115" t="n">
-        <v>-0.5569785056906875</v>
+        <v>0.2190265188482534</v>
       </c>
       <c r="D115" t="n">
-        <v>0.1090628510739194</v>
+        <v>1.430046513059233</v>
       </c>
       <c r="E115" t="n">
-        <v>0.1510590677158157</v>
-      </c>
-      <c r="F115" t="n">
-        <v>-0.293098397198873</v>
+        <v>0.03334999445357167</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>Oxyclozanide_2C03</t>
-        </is>
-      </c>
-      <c r="B116" s="1" t="n">
-        <v>1</v>
+          <t>Pevonedistat_1H02</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>-0.3834323541540929</v>
       </c>
       <c r="C116" t="n">
-        <v>0.9161988211061722</v>
+        <v>0.2963219351924651</v>
       </c>
       <c r="D116" t="n">
-        <v>0.9949159287434411</v>
+        <v>-0.3740613056363467</v>
       </c>
       <c r="E116" t="n">
-        <v>0.9107324905960168</v>
-      </c>
-      <c r="F116" t="n">
-        <v>-0.7164568704755737</v>
+        <v>-0.3386681888221596</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>Ozanimod_1H08</t>
-        </is>
-      </c>
-      <c r="B117" s="1" t="n">
-        <v>1</v>
+          <t>Pexidartanib_1B05</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>-0.4508945224814354</v>
       </c>
       <c r="C117" t="n">
-        <v>-0.03338517733675356</v>
+        <v>0.4522382296816141</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.01499465081914728</v>
+        <v>0.04522910594966218</v>
       </c>
       <c r="E117" t="n">
-        <v>-0.2960114363296995</v>
-      </c>
-      <c r="F117" t="n">
-        <v>0.2121482442972394</v>
+        <v>-0.3513358974835991</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>PB 28_2C08</t>
-        </is>
-      </c>
-      <c r="B118" s="1" t="n">
-        <v>1</v>
+          <t>Pimozide_2G07</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>1.27744827067712</v>
       </c>
       <c r="C118" t="n">
-        <v>0.6862100438072893</v>
+        <v>-1.027447753486622</v>
       </c>
       <c r="D118" t="n">
-        <v>0.6478110076774229</v>
+        <v>2.213994435844801</v>
       </c>
       <c r="E118" t="n">
-        <v>0.4926590136029894</v>
-      </c>
-      <c r="F118" t="n">
-        <v>-0.1150365914564877</v>
+        <v>2.738304598604701</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>PD 144418_2E04</t>
-        </is>
-      </c>
-      <c r="B119" s="1" t="n">
-        <v>1</v>
+          <t>Piperaquine_2H11</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>-0.415766702413043</v>
       </c>
       <c r="C119" t="n">
-        <v>0.5757173291292069</v>
+        <v>-0.3016894465471774</v>
       </c>
       <c r="D119" t="n">
-        <v>0.5810153430254732</v>
+        <v>-0.4463670064280581</v>
       </c>
       <c r="E119" t="n">
-        <v>0.4790478969724551</v>
-      </c>
-      <c r="F119" t="n">
-        <v>-0.250375962145533</v>
+        <v>0.3287078883858021</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>Papaverine_1C02</t>
-        </is>
-      </c>
-      <c r="B120" s="1" t="n">
-        <v>1</v>
+          <t>Ponatinib_2A07</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>0.311138834945212</v>
       </c>
       <c r="C120" t="n">
-        <v>-0.4195133794557779</v>
+        <v>0.4603013135775326</v>
       </c>
       <c r="D120" t="n">
-        <v>0.4624493075030621</v>
+        <v>1.991990357346719</v>
       </c>
       <c r="E120" t="n">
-        <v>0.2710972107861225</v>
-      </c>
-      <c r="F120" t="n">
-        <v>-0.2494581519626762</v>
+        <v>-0.5599510586901808</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>Paroxetine_2G11</t>
-        </is>
-      </c>
-      <c r="B121" s="1" t="n">
-        <v>1</v>
+          <t>Posaconazole_1H10</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>-0.1264141597403937</v>
       </c>
       <c r="C121" t="n">
-        <v>0.8914340492019756</v>
+        <v>0.4100344513510473</v>
       </c>
       <c r="D121" t="n">
-        <v>0.2190265188482534</v>
+        <v>0.1037300416693826</v>
       </c>
       <c r="E121" t="n">
-        <v>1.430046513059233</v>
-      </c>
-      <c r="F121" t="n">
-        <v>0.03334999445357167</v>
+        <v>-0.2588162010915133</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>Pevonedistat_1H02</t>
-        </is>
-      </c>
-      <c r="B122" s="1" t="n">
-        <v>1</v>
+          <t>Promethazine_2F11</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>-0.4772830783020438</v>
       </c>
       <c r="C122" t="n">
-        <v>-0.3834323541540929</v>
+        <v>-0.4074877228931961</v>
       </c>
       <c r="D122" t="n">
-        <v>0.2963219351924651</v>
+        <v>-0.1835245817075829</v>
       </c>
       <c r="E122" t="n">
-        <v>-0.3740613056363467</v>
-      </c>
-      <c r="F122" t="n">
-        <v>-0.3386681888221596</v>
+        <v>0.1380238146861709</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>Pexidartanib_1B05</t>
-        </is>
-      </c>
-      <c r="B123" s="1" t="n">
-        <v>1</v>
+          <t>Proscillaridin_2C06</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>0.3245339680140339</v>
       </c>
       <c r="C123" t="n">
-        <v>-0.4508945224814354</v>
+        <v>0.885581504028075</v>
       </c>
       <c r="D123" t="n">
-        <v>0.4522382296816141</v>
+        <v>0.7590227048440796</v>
       </c>
       <c r="E123" t="n">
-        <v>0.04522910594966218</v>
-      </c>
-      <c r="F123" t="n">
-        <v>-0.3513358974835991</v>
+        <v>-0.2308985439777884</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>Pimozide_2G07</t>
-        </is>
-      </c>
-      <c r="B124" s="1" t="n">
-        <v>1</v>
+          <t>Pyronaridine_1H11</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>-0.1459430948744932</v>
       </c>
       <c r="C124" t="n">
-        <v>1.27744827067712</v>
+        <v>0.1548186486040837</v>
       </c>
       <c r="D124" t="n">
-        <v>-1.027447753486622</v>
+        <v>0.2872904994920805</v>
       </c>
       <c r="E124" t="n">
-        <v>2.213994435844801</v>
-      </c>
-      <c r="F124" t="n">
-        <v>2.738304598604701</v>
+        <v>0.4433989382860338</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>Piperaquine_2H11</t>
-        </is>
-      </c>
-      <c r="B125" s="1" t="n">
-        <v>1</v>
+          <t>R 7112_1B09</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>0.1410825720055377</v>
       </c>
       <c r="C125" t="n">
-        <v>-0.415766702413043</v>
+        <v>0.4617846665335467</v>
       </c>
       <c r="D125" t="n">
-        <v>-0.3016894465471774</v>
+        <v>-0.0103584566877212</v>
       </c>
       <c r="E125" t="n">
-        <v>-0.4463670064280581</v>
-      </c>
-      <c r="F125" t="n">
-        <v>0.3287078883858021</v>
+        <v>-0.2989517601619393</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>Ponatinib_2A07</t>
-        </is>
-      </c>
-      <c r="B126" s="1" t="n">
-        <v>1</v>
+          <t>RVX 208_2D04</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>0.5980375773185692</v>
       </c>
       <c r="C126" t="n">
-        <v>0.3236711472418856</v>
+        <v>-0.1683456635318415</v>
       </c>
       <c r="D126" t="n">
-        <v>0.490302854719626</v>
+        <v>0.1841572532136753</v>
       </c>
       <c r="E126" t="n">
-        <v>2.104585310378906</v>
-      </c>
-      <c r="F126" t="n">
-        <v>-0.6452858215133633</v>
+        <v>0.4054835802424032</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="1" t="n"/>
-      <c r="B127" s="1" t="n">
-        <v>0.5</v>
+      <c r="A127" s="1" t="inlineStr">
+        <is>
+          <t>Rapamycin_2A06</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>0.1565523395350715</v>
       </c>
       <c r="C127" t="n">
-        <v>0.663268623151414</v>
+        <v>1.257216766708979</v>
       </c>
       <c r="D127" t="n">
-        <v>0.3782819481409542</v>
+        <v>0.5200029227700703</v>
       </c>
       <c r="E127" t="n">
-        <v>1.000492797875837</v>
-      </c>
-      <c r="F127" t="n">
-        <v>-0.03607948913270207</v>
+        <v>-0.8218808810145058</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>Posaconazole_1H10</t>
-        </is>
-      </c>
-      <c r="B128" s="1" t="n">
-        <v>1</v>
+          <t>Ravuconazole_1D06</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>0.594161180864436</v>
       </c>
       <c r="C128" t="n">
-        <v>-0.1264141597403937</v>
+        <v>0.5686762105159332</v>
       </c>
       <c r="D128" t="n">
-        <v>0.4100344513510473</v>
+        <v>1.810976617510947</v>
       </c>
       <c r="E128" t="n">
-        <v>0.1037300416693826</v>
-      </c>
-      <c r="F128" t="n">
-        <v>-0.2588162010915133</v>
+        <v>1.037564906123961</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>Promethazine_2F11</t>
-        </is>
-      </c>
-      <c r="B129" s="1" t="n">
-        <v>1</v>
+          <t>Regorafenib_1B04</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>1.218023520457287</v>
       </c>
       <c r="C129" t="n">
-        <v>-0.4772830783020438</v>
+        <v>0.3948428121889413</v>
       </c>
       <c r="D129" t="n">
-        <v>-0.4074877228931961</v>
+        <v>1.895624658169395</v>
       </c>
       <c r="E129" t="n">
-        <v>-0.1835245817075829</v>
-      </c>
-      <c r="F129" t="n">
-        <v>0.1380238146861709</v>
+        <v>0.4151034702075635</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>Proscillaridin_2C06</t>
-        </is>
-      </c>
-      <c r="B130" s="1" t="n">
-        <v>1</v>
+          <t>Remdesivir_1A06</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>0.3641042077865169</v>
       </c>
       <c r="C130" t="n">
-        <v>0.3245339680140339</v>
+        <v>0.2565777699609278</v>
       </c>
       <c r="D130" t="n">
-        <v>0.885581504028075</v>
+        <v>0.2241436641352575</v>
       </c>
       <c r="E130" t="n">
-        <v>0.7590227048440796</v>
-      </c>
-      <c r="F130" t="n">
-        <v>-0.2308985439777884</v>
+        <v>-0.2402165376715617</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>Pyronaridine_1H11</t>
-        </is>
-      </c>
-      <c r="B131" s="1" t="n">
-        <v>1</v>
+          <t>Ribavirin_1F08</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>0.2653656800031687</v>
       </c>
       <c r="C131" t="n">
-        <v>-0.1459430948744932</v>
+        <v>-0.1136893925678733</v>
       </c>
       <c r="D131" t="n">
-        <v>0.1548186486040837</v>
+        <v>0.1336743126432729</v>
       </c>
       <c r="E131" t="n">
-        <v>0.2872904994920805</v>
-      </c>
-      <c r="F131" t="n">
-        <v>0.4433989382860338</v>
+        <v>0.1388073721431359</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>R 7112_1B09</t>
-        </is>
-      </c>
-      <c r="B132" s="1" t="n">
-        <v>1</v>
+          <t>Ritonavir_1A11</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>0.2846747638820607</v>
       </c>
       <c r="C132" t="n">
-        <v>0.1410825720055377</v>
+        <v>-0.374750174219101</v>
       </c>
       <c r="D132" t="n">
-        <v>0.4617846665335467</v>
+        <v>-0.5820299035319859</v>
       </c>
       <c r="E132" t="n">
-        <v>-0.0103584566877212</v>
-      </c>
-      <c r="F132" t="n">
-        <v>-0.2989517601619393</v>
+        <v>-0.305666428526834</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>RVX 208_2D04</t>
-        </is>
-      </c>
-      <c r="B133" s="1" t="n">
-        <v>1</v>
+          <t>Ruxolitinib_1B11</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>0.2614854567045539</v>
       </c>
       <c r="C133" t="n">
-        <v>0.5980375773185692</v>
+        <v>0.4150452615461898</v>
       </c>
       <c r="D133" t="n">
-        <v>-0.1683456635318415</v>
+        <v>0.2185535515973684</v>
       </c>
       <c r="E133" t="n">
-        <v>0.1841572532136753</v>
-      </c>
-      <c r="F133" t="n">
-        <v>0.4054835802424032</v>
+        <v>-0.5446730414168662</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>Rapamycin_2A06</t>
-        </is>
-      </c>
-      <c r="B134" s="1" t="n">
-        <v>1</v>
+          <t>SAX-187_1G10</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>-0.4670800034356024</v>
       </c>
       <c r="C134" t="n">
-        <v>0.1565523395350715</v>
+        <v>0.3544211702831796</v>
       </c>
       <c r="D134" t="n">
-        <v>1.257216766708979</v>
+        <v>-0.1485236925578925</v>
       </c>
       <c r="E134" t="n">
-        <v>0.5200029227700703</v>
-      </c>
-      <c r="F134" t="n">
-        <v>-0.8218808810145058</v>
+        <v>-0.2561706829904634</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>Ravuconazole_1D06</t>
-        </is>
-      </c>
-      <c r="B135" s="1" t="n">
-        <v>1</v>
+          <t>SMN-C3_1E11</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>-0.5015749189706068</v>
       </c>
       <c r="C135" t="n">
-        <v>0.594161180864436</v>
+        <v>0.3561068251505387</v>
       </c>
       <c r="D135" t="n">
-        <v>0.5686762105159332</v>
+        <v>-0.3631136956936164</v>
       </c>
       <c r="E135" t="n">
-        <v>1.810976617510947</v>
-      </c>
-      <c r="F135" t="n">
-        <v>1.037564906123961</v>
+        <v>-0.5808686892324217</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>Regorafenib_1B04</t>
-        </is>
-      </c>
-      <c r="B136" s="1" t="n">
-        <v>1</v>
+          <t>Salinomycin_2D02</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>0.6074384712869917</v>
       </c>
       <c r="C136" t="n">
-        <v>1.218023520457287</v>
+        <v>0.5828892943519379</v>
       </c>
       <c r="D136" t="n">
-        <v>0.3948428121889413</v>
+        <v>0.3858426675054263</v>
       </c>
       <c r="E136" t="n">
-        <v>1.895624658169395</v>
-      </c>
-      <c r="F136" t="n">
-        <v>0.4151034702075635</v>
+        <v>-0.237920320146176</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>Remdesivir_1A06</t>
-        </is>
-      </c>
-      <c r="B137" s="1" t="n">
-        <v>1</v>
+          <t>Selumetinib_2G05</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>-0.1530391292768102</v>
       </c>
       <c r="C137" t="n">
-        <v>0.3641042077865169</v>
+        <v>0.591038199443927</v>
       </c>
       <c r="D137" t="n">
-        <v>0.2565777699609278</v>
+        <v>0.04947633641756897</v>
       </c>
       <c r="E137" t="n">
-        <v>0.2241436641352575</v>
-      </c>
-      <c r="F137" t="n">
-        <v>-0.2402165376715617</v>
+        <v>-0.6147340263316133</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>Ribavirin_1F08</t>
-        </is>
-      </c>
-      <c r="B138" s="1" t="n">
-        <v>1</v>
+          <t>Sertindole_2G08</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>-0.2261902612275889</v>
       </c>
       <c r="C138" t="n">
-        <v>0.2653656800031687</v>
+        <v>0.6027965160477097</v>
       </c>
       <c r="D138" t="n">
-        <v>-0.1136893925678733</v>
+        <v>0.003969701244032779</v>
       </c>
       <c r="E138" t="n">
-        <v>0.1336743126432729</v>
-      </c>
-      <c r="F138" t="n">
-        <v>0.1388073721431359</v>
+        <v>-0.9373953864096651</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>Ritonavir_1A11</t>
-        </is>
-      </c>
-      <c r="B139" s="1" t="n">
-        <v>1</v>
+          <t>Silmitasertib_2C02</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>0.3670605428230179</v>
       </c>
       <c r="C139" t="n">
-        <v>0.2846747638820607</v>
+        <v>0.2713254223478047</v>
       </c>
       <c r="D139" t="n">
-        <v>-0.374750174219101</v>
+        <v>0.2005506279908781</v>
       </c>
       <c r="E139" t="n">
-        <v>-0.5820299035319859</v>
-      </c>
-      <c r="F139" t="n">
-        <v>-0.305666428526834</v>
+        <v>-0.2643410713273253</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>Ruxolitinib_1B11</t>
-        </is>
-      </c>
-      <c r="B140" s="1" t="n">
-        <v>1</v>
+          <t>Simeprevir_1D09</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>0.516462075160744</v>
       </c>
       <c r="C140" t="n">
-        <v>0.2614854567045539</v>
+        <v>-0.09189649795910348</v>
       </c>
       <c r="D140" t="n">
-        <v>0.4150452615461898</v>
+        <v>0.2159071779716877</v>
       </c>
       <c r="E140" t="n">
-        <v>0.2185535515973684</v>
-      </c>
-      <c r="F140" t="n">
-        <v>-0.5446730414168662</v>
+        <v>-0.2543977004004557</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>SAX-187_1G10</t>
-        </is>
-      </c>
-      <c r="B141" s="1" t="n">
-        <v>1</v>
+          <t>Sofosbuvir_1E09</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>-0.4715076123575666</v>
       </c>
       <c r="C141" t="n">
-        <v>-0.4670800034356024</v>
+        <v>0.3742062386262041</v>
       </c>
       <c r="D141" t="n">
-        <v>0.3544211702831796</v>
+        <v>-0.07080382999424992</v>
       </c>
       <c r="E141" t="n">
-        <v>-0.1485236925578925</v>
-      </c>
-      <c r="F141" t="n">
-        <v>-0.2561706829904634</v>
+        <v>-0.3974809552588212</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>SMN-C3_1E11</t>
-        </is>
-      </c>
-      <c r="B142" s="1" t="n">
-        <v>1</v>
+          <t>Sorafenib_1F09</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>0.1590551057885627</v>
       </c>
       <c r="C142" t="n">
-        <v>-0.5015749189706068</v>
+        <v>0.7049811567602333</v>
       </c>
       <c r="D142" t="n">
-        <v>0.3561068251505387</v>
+        <v>0.6751335916232994</v>
       </c>
       <c r="E142" t="n">
-        <v>-0.3631136956936164</v>
-      </c>
-      <c r="F142" t="n">
-        <v>-0.5808686892324217</v>
+        <v>0.02400932152992108</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>Salinomycin_2D02</t>
-        </is>
-      </c>
-      <c r="B143" s="1" t="n">
-        <v>1</v>
+          <t>Spectinomycin_2F09</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>0.2102253160312551</v>
       </c>
       <c r="C143" t="n">
-        <v>0.6074384712869917</v>
+        <v>0.3647512104199193</v>
       </c>
       <c r="D143" t="n">
-        <v>0.5828892943519379</v>
+        <v>-0.1308989999762782</v>
       </c>
       <c r="E143" t="n">
-        <v>0.3858426675054263</v>
-      </c>
-      <c r="F143" t="n">
-        <v>-0.237920320146176</v>
+        <v>-0.2648923591789241</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>Selumetinib_2G05</t>
-        </is>
-      </c>
-      <c r="B144" s="1" t="n">
-        <v>1</v>
+          <t>Tacrolimus_2B07</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>-0.2265630019988562</v>
       </c>
       <c r="C144" t="n">
-        <v>-0.1530391292768102</v>
+        <v>-0.02097010339803478</v>
       </c>
       <c r="D144" t="n">
-        <v>0.591038199443927</v>
+        <v>0.2733554752853993</v>
       </c>
       <c r="E144" t="n">
-        <v>0.04947633641756897</v>
-      </c>
-      <c r="F144" t="n">
-        <v>-0.6147340263316133</v>
+        <v>0.1751461225873632</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>Sertindole_2G08</t>
-        </is>
-      </c>
-      <c r="B145" s="1" t="n">
-        <v>1</v>
+          <t>Tenofovir_2B11</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>0.5131109086533441</v>
       </c>
       <c r="C145" t="n">
-        <v>-0.2261902612275889</v>
+        <v>-0.5413992445579746</v>
       </c>
       <c r="D145" t="n">
-        <v>0.6027965160477097</v>
+        <v>-0.6542054167950904</v>
       </c>
       <c r="E145" t="n">
-        <v>0.003969701244032779</v>
-      </c>
-      <c r="F145" t="n">
-        <v>-0.9373953864096651</v>
+        <v>0.08189793115558382</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>Silmitasertib_2C02</t>
-        </is>
-      </c>
-      <c r="B146" s="1" t="n">
-        <v>1</v>
+          <t>Terconazole_1G07</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>0.7784732220863911</v>
       </c>
       <c r="C146" t="n">
-        <v>0.3670605428230179</v>
+        <v>0.6315920078948497</v>
       </c>
       <c r="D146" t="n">
-        <v>0.2713254223478047</v>
+        <v>0.1346711727364221</v>
       </c>
       <c r="E146" t="n">
-        <v>0.2005506279908781</v>
-      </c>
-      <c r="F146" t="n">
-        <v>-0.2643410713273253</v>
+        <v>-1.13850424252725</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>Simeprevir_1D09</t>
-        </is>
-      </c>
-      <c r="B147" s="1" t="n">
-        <v>1</v>
+          <t>Tetracycline_2A03</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>-0.05117482290710533</v>
       </c>
       <c r="C147" t="n">
-        <v>0.516462075160744</v>
+        <v>0.2846135901695395</v>
       </c>
       <c r="D147" t="n">
-        <v>-0.09189649795910348</v>
+        <v>0.08161508627336891</v>
       </c>
       <c r="E147" t="n">
-        <v>0.2159071779716877</v>
-      </c>
-      <c r="F147" t="n">
-        <v>-0.2543977004004557</v>
+        <v>-0.1028553871201141</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>Sofosbuvir_1E09</t>
-        </is>
-      </c>
-      <c r="B148" s="1" t="n">
-        <v>1</v>
+          <t>Tetrandrine_1H03</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>0.1083900197581622</v>
       </c>
       <c r="C148" t="n">
-        <v>-0.4715076123575666</v>
+        <v>-0.2924095921304101</v>
       </c>
       <c r="D148" t="n">
-        <v>0.3742062386262041</v>
+        <v>0.249683171297671</v>
       </c>
       <c r="E148" t="n">
-        <v>-0.07080382999424992</v>
-      </c>
-      <c r="F148" t="n">
-        <v>-0.3974809552588212</v>
+        <v>0.6942148849436562</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>Sorafenib_1F09</t>
-        </is>
-      </c>
-      <c r="B149" s="1" t="n">
-        <v>1</v>
+          <t>Thiethylperazine_2B06</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>0.8617727799187693</v>
       </c>
       <c r="C149" t="n">
-        <v>0.1590551057885627</v>
+        <v>-1.008062912398765</v>
       </c>
       <c r="D149" t="n">
-        <v>0.7049811567602333</v>
+        <v>0.01558308119102651</v>
       </c>
       <c r="E149" t="n">
-        <v>0.6751335916232994</v>
-      </c>
-      <c r="F149" t="n">
-        <v>0.02400932152992108</v>
+        <v>0.6587524117328716</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>Spectinomycin_2F09</t>
-        </is>
-      </c>
-      <c r="B150" s="1" t="n">
-        <v>1</v>
+          <t>Tigecycline_1C11</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>0.188781097270152</v>
       </c>
       <c r="C150" t="n">
-        <v>0.2102253160312551</v>
+        <v>0.3799391728016935</v>
       </c>
       <c r="D150" t="n">
-        <v>0.3647512104199193</v>
+        <v>0.6827814206880731</v>
       </c>
       <c r="E150" t="n">
-        <v>-0.1308989999762782</v>
-      </c>
-      <c r="F150" t="n">
-        <v>-0.2648923591789241</v>
+        <v>-0.07856005677225493</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>Tacrolimus_2B07</t>
-        </is>
-      </c>
-      <c r="B151" s="1" t="n">
-        <v>1</v>
+          <t>Tioguanine_1C08</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>-0.05562908140183797</v>
       </c>
       <c r="C151" t="n">
-        <v>-0.2917907086244522</v>
+        <v>0.6673355466444932</v>
       </c>
       <c r="D151" t="n">
-        <v>0.2153029670651978</v>
+        <v>0.5389185608446113</v>
       </c>
       <c r="E151" t="n">
-        <v>0.4207864780663468</v>
-      </c>
-      <c r="F151" t="n">
-        <v>0.1110193066137369</v>
+        <v>-0.4313910064924892</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="1" t="n"/>
-      <c r="B152" s="1" t="n">
-        <v>0.5</v>
+      <c r="A152" s="1" t="inlineStr">
+        <is>
+          <t>Tizoxanide_1D07</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>0.7552733781329747</v>
       </c>
       <c r="C152" t="n">
-        <v>-0.1355812471549732</v>
+        <v>0.213792654576186</v>
       </c>
       <c r="D152" t="n">
-        <v>0.07858236391811316</v>
+        <v>0.1993683694172194</v>
       </c>
       <c r="E152" t="n">
-        <v>0.4388771450128018</v>
-      </c>
-      <c r="F152" t="n">
-        <v>-0.2639809364159663</v>
+        <v>-0.1643285897253559</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>Tenofovir_2B11</t>
-        </is>
-      </c>
-      <c r="B153" s="1" t="n">
-        <v>1</v>
+          <t>Tomivosertib_1C09</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>-0.1561373534403162</v>
       </c>
       <c r="C153" t="n">
-        <v>0.5131109086533441</v>
+        <v>0.9557972156140002</v>
       </c>
       <c r="D153" t="n">
-        <v>-0.5413992445579746</v>
+        <v>0.4680925081269225</v>
       </c>
       <c r="E153" t="n">
-        <v>-0.6542054167950904</v>
-      </c>
-      <c r="F153" t="n">
-        <v>0.08189793115558382</v>
+        <v>-0.6589513828913939</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>Terconazole_1G07</t>
-        </is>
-      </c>
-      <c r="B154" s="1" t="n">
-        <v>0.5</v>
+          <t>Toremifene_2A04</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>0.1369233314428077</v>
       </c>
       <c r="C154" t="n">
-        <v>-0.06283363140663521</v>
+        <v>0.2202982529974723</v>
       </c>
       <c r="D154" t="n">
-        <v>0.4170244482820775</v>
+        <v>0.4093654714023991</v>
       </c>
       <c r="E154" t="n">
-        <v>0.3446769987041953</v>
-      </c>
-      <c r="F154" t="n">
-        <v>-0.4990048008632677</v>
+        <v>-0.3593408759985956</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="1" t="n"/>
-      <c r="B155" s="1" t="n">
-        <v>1</v>
+      <c r="A155" s="1" t="inlineStr">
+        <is>
+          <t>Triparanol_1E07</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>-0.7959878656384569</v>
       </c>
       <c r="C155" t="n">
-        <v>0.912118709159938</v>
+        <v>0.07873186714382488</v>
       </c>
       <c r="D155" t="n">
-        <v>0.6084297957260691</v>
+        <v>-0.6723491231501307</v>
       </c>
       <c r="E155" t="n">
-        <v>0.2431443741602884</v>
-      </c>
-      <c r="F155" t="n">
-        <v>-1.126186706294745</v>
+        <v>-0.3256064116465058</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>Tetracycline_2A03</t>
-        </is>
-      </c>
-      <c r="B156" s="1" t="n">
-        <v>1</v>
+          <t>Umifenovir_2E02</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>-0.1584822273981153</v>
       </c>
       <c r="C156" t="n">
-        <v>-0.05117482290710533</v>
+        <v>0.1623018522095857</v>
       </c>
       <c r="D156" t="n">
-        <v>0.2846135901695395</v>
+        <v>0.1814000035524998</v>
       </c>
       <c r="E156" t="n">
-        <v>0.08161508627336891</v>
-      </c>
-      <c r="F156" t="n">
-        <v>-0.1028553871201141</v>
+        <v>-0.3518527938691907</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>Tetrandrine_1H03</t>
-        </is>
-      </c>
-      <c r="B157" s="1" t="n">
-        <v>1</v>
+          <t>Valdecoxib_2G10</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>-0.09926445410055144</v>
       </c>
       <c r="C157" t="n">
-        <v>0.1083900197581622</v>
+        <v>-0.4397751333841629</v>
       </c>
       <c r="D157" t="n">
-        <v>-0.2924095921304101</v>
+        <v>0.09624439835969865</v>
       </c>
       <c r="E157" t="n">
-        <v>0.249683171297671</v>
-      </c>
-      <c r="F157" t="n">
-        <v>0.6942148849436562</v>
+        <v>0.04631102967227273</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>Thiethylperazine_2B06</t>
-        </is>
-      </c>
-      <c r="B158" s="1" t="n">
-        <v>1</v>
+          <t>Valproic Acid_1D08</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>-0.1914671273433698</v>
       </c>
       <c r="C158" t="n">
-        <v>0.8617727799187693</v>
+        <v>-0.2857918905326558</v>
       </c>
       <c r="D158" t="n">
-        <v>-1.008062912398765</v>
+        <v>0.09293707548625896</v>
       </c>
       <c r="E158" t="n">
-        <v>0.01558308119102651</v>
-      </c>
-      <c r="F158" t="n">
-        <v>0.6587524117328716</v>
+        <v>0.5458983546080178</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>Tigecycline_1C11</t>
-        </is>
-      </c>
-      <c r="B159" s="1" t="n">
-        <v>1</v>
+          <t>Valsartan_1F02</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>0.1784394875226178</v>
       </c>
       <c r="C159" t="n">
-        <v>0.188781097270152</v>
+        <v>-0.5237947033491881</v>
       </c>
       <c r="D159" t="n">
-        <v>0.3799391728016935</v>
+        <v>-0.5274643149220896</v>
       </c>
       <c r="E159" t="n">
-        <v>0.6827814206880731</v>
-      </c>
-      <c r="F159" t="n">
-        <v>-0.07856005677225493</v>
+        <v>0.3139744462719284</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>Tioguanine_1C08</t>
-        </is>
-      </c>
-      <c r="B160" s="1" t="n">
-        <v>1</v>
+          <t>Veliparib_2G02</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>0.02530638996300167</v>
       </c>
       <c r="C160" t="n">
-        <v>-0.05562908140183797</v>
+        <v>-0.1049347568134338</v>
       </c>
       <c r="D160" t="n">
-        <v>0.6673355466444932</v>
+        <v>0.7060844345435516</v>
       </c>
       <c r="E160" t="n">
-        <v>0.5389185608446113</v>
-      </c>
-      <c r="F160" t="n">
-        <v>-0.4313910064924892</v>
+        <v>0.3593673738353262</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>Tizoxanide_1D07</t>
-        </is>
-      </c>
-      <c r="B161" s="1" t="n">
-        <v>1</v>
+          <t>Verapamil_1B08</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>0.2451116972461627</v>
       </c>
       <c r="C161" t="n">
-        <v>0.7552733781329747</v>
+        <v>0.5138825138721929</v>
       </c>
       <c r="D161" t="n">
-        <v>0.213792654576186</v>
+        <v>0.5286763936013753</v>
       </c>
       <c r="E161" t="n">
-        <v>0.1993683694172194</v>
-      </c>
-      <c r="F161" t="n">
-        <v>-0.1643285897253559</v>
+        <v>-0.263553868345941</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>Tomivosertib_1C09</t>
-        </is>
-      </c>
-      <c r="B162" s="1" t="n">
-        <v>1</v>
+          <t>Vidofludimus_1D11</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>0.340001586467969</v>
       </c>
       <c r="C162" t="n">
-        <v>-0.1561373534403162</v>
+        <v>-0.3522459455159682</v>
       </c>
       <c r="D162" t="n">
-        <v>0.9557972156140002</v>
+        <v>-0.1465714694828309</v>
       </c>
       <c r="E162" t="n">
-        <v>0.4680925081269225</v>
-      </c>
-      <c r="F162" t="n">
-        <v>-0.6589513828913939</v>
+        <v>0.07652010503155114</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>Toremifene_2A04</t>
-        </is>
-      </c>
-      <c r="B163" s="1" t="n">
-        <v>1</v>
+          <t>ZINC4326719_2E07</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>0.3526872284792305</v>
       </c>
       <c r="C163" t="n">
-        <v>0.1369233314428077</v>
+        <v>0.07964961935699254</v>
       </c>
       <c r="D163" t="n">
-        <v>0.2202982529974723</v>
+        <v>0.3622101480685644</v>
       </c>
       <c r="E163" t="n">
-        <v>0.4093654714023991</v>
-      </c>
-      <c r="F163" t="n">
-        <v>-0.3593408759985956</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="inlineStr">
-        <is>
-          <t>Triparanol_1E07</t>
-        </is>
-      </c>
-      <c r="B164" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C164" t="n">
-        <v>-0.7959878656384569</v>
-      </c>
-      <c r="D164" t="n">
-        <v>0.07873186714382488</v>
-      </c>
-      <c r="E164" t="n">
-        <v>-0.6723491231501307</v>
-      </c>
-      <c r="F164" t="n">
-        <v>-0.3256064116465058</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="inlineStr">
-        <is>
-          <t>Umifenovir_2E02</t>
-        </is>
-      </c>
-      <c r="B165" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C165" t="n">
-        <v>-0.1584822273981153</v>
-      </c>
-      <c r="D165" t="n">
-        <v>0.1623018522095857</v>
-      </c>
-      <c r="E165" t="n">
-        <v>0.1814000035524998</v>
-      </c>
-      <c r="F165" t="n">
-        <v>-0.3518527938691907</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="inlineStr">
-        <is>
-          <t>Valdecoxib_2G10</t>
-        </is>
-      </c>
-      <c r="B166" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C166" t="n">
-        <v>-0.09926445410055144</v>
-      </c>
-      <c r="D166" t="n">
-        <v>-0.4397751333841629</v>
-      </c>
-      <c r="E166" t="n">
-        <v>0.09624439835969865</v>
-      </c>
-      <c r="F166" t="n">
-        <v>0.04631102967227273</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="inlineStr">
-        <is>
-          <t>Valproic Acid_1D08</t>
-        </is>
-      </c>
-      <c r="B167" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C167" t="n">
-        <v>-0.1914671273433698</v>
-      </c>
-      <c r="D167" t="n">
-        <v>-0.2857918905326558</v>
-      </c>
-      <c r="E167" t="n">
-        <v>0.09293707548625896</v>
-      </c>
-      <c r="F167" t="n">
-        <v>0.5458983546080178</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="inlineStr">
-        <is>
-          <t>Valsartan_1F02</t>
-        </is>
-      </c>
-      <c r="B168" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C168" t="n">
-        <v>0.1784394875226178</v>
-      </c>
-      <c r="D168" t="n">
-        <v>-0.5237947033491881</v>
-      </c>
-      <c r="E168" t="n">
-        <v>-0.5274643149220896</v>
-      </c>
-      <c r="F168" t="n">
-        <v>0.3139744462719284</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="inlineStr">
-        <is>
-          <t>Veliparib_2G02</t>
-        </is>
-      </c>
-      <c r="B169" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C169" t="n">
-        <v>0.02530638996300167</v>
-      </c>
-      <c r="D169" t="n">
-        <v>-0.1049347568134338</v>
-      </c>
-      <c r="E169" t="n">
-        <v>0.7060844345435516</v>
-      </c>
-      <c r="F169" t="n">
-        <v>0.3593673738353262</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="inlineStr">
-        <is>
-          <t>Verapamil_1B08</t>
-        </is>
-      </c>
-      <c r="B170" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C170" t="n">
-        <v>0.2451116972461627</v>
-      </c>
-      <c r="D170" t="n">
-        <v>0.5138825138721929</v>
-      </c>
-      <c r="E170" t="n">
-        <v>0.5286763936013753</v>
-      </c>
-      <c r="F170" t="n">
-        <v>-0.263553868345941</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="inlineStr">
-        <is>
-          <t>Vidofludimus_1D11</t>
-        </is>
-      </c>
-      <c r="B171" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C171" t="n">
-        <v>0.340001586467969</v>
-      </c>
-      <c r="D171" t="n">
-        <v>-0.3522459455159682</v>
-      </c>
-      <c r="E171" t="n">
-        <v>-0.1465714694828309</v>
-      </c>
-      <c r="F171" t="n">
-        <v>0.07652010503155114</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="inlineStr">
-        <is>
-          <t>ZINC4326719_2E07</t>
-        </is>
-      </c>
-      <c r="B172" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C172" t="n">
-        <v>0.3526872284792305</v>
-      </c>
-      <c r="D172" t="n">
-        <v>0.07964961935699254</v>
-      </c>
-      <c r="E172" t="n">
-        <v>0.3622101480685644</v>
-      </c>
-      <c r="F172" t="n">
         <v>0.4998942194052007</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="A100:A103"/>
-    <mergeCell ref="A126:A127"/>
-    <mergeCell ref="A151:A152"/>
-    <mergeCell ref="A154:A155"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Data/2022-08-08_Behavior_Assay_effsize.xlsx
+++ b/Data/2022-08-08_Behavior_Assay_effsize.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -50,6 +50,27 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -425,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E163"/>
+  <dimension ref="A1:F173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,22 +455,22 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Moving [s]|Accomodation</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Velocity [mm/s]|Light</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Velocity [mm/s]|Dark</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Velocity|Ratio Light/Dark</t>
         </is>
@@ -461,16 +482,19 @@
           <t>(+)-Mefloquine_2C11</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
         <v>-0.162876979008659</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>0.3541838439172261</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>0.1417871751525446</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>-0.1383169197327613</v>
       </c>
     </row>
@@ -480,16 +504,19 @@
           <t>(-)-Anisomycin_2F06</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
         <v>-0.1452383489048286</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>-0.8037273083161686</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>0.4219654947053558</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>1.007727772503799</v>
       </c>
     </row>
@@ -499,16 +526,19 @@
           <t>(RS)-PPCC_2E05</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
         <v>-0.9612247229666391</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>-0.2689655714235629</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>-0.6610729972962706</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.3376307389194682</v>
       </c>
     </row>
@@ -518,16 +548,19 @@
           <t>ABT 239_1F10</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
         <v>0.696726694995384</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>0.5940449885712614</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>0.7292817695172309</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>-0.4203026320019885</v>
       </c>
     </row>
@@ -537,16 +570,19 @@
           <t>AZ3451_2E06</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
         <v>-0.1767968022259921</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>-0.6342376725220431</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>-0.05667937261649766</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.5984849215592883</v>
       </c>
     </row>
@@ -556,16 +592,19 @@
           <t>Abacavir_2H07</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
         <v>0.4416129113722693</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>-0.1662777828228485</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>0.5878314216589851</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.1201430428385314</v>
       </c>
     </row>
@@ -575,16 +614,19 @@
           <t>Abemaciclib_1G11</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
         <v>0.04241719494369257</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>0.1213511323065756</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>0.2702481526676694</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>-0.2497729175912962</v>
       </c>
     </row>
@@ -594,16 +636,19 @@
           <t>Almitrine_1G04</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
         <v>1.482837819156851</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>0.9416903819575732</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>1.243833815112687</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>-1.421909178291799</v>
       </c>
     </row>
@@ -613,16 +658,19 @@
           <t>Amiodarone_1F03</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
         <v>0.5375688310188934</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>0.7166874128263558</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>0.5791278056313104</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>-0.6728430207882676</v>
       </c>
     </row>
@@ -632,16 +680,19 @@
           <t>Amodiaquine_1D03</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
         <v>0.7098702473736654</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>0.1735428577552738</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>0.3853429912133307</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>-0.2865121174499744</v>
       </c>
     </row>
@@ -651,16 +702,19 @@
           <t>Amuvatinib_1E04</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
         <v>-1.110627494825529</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>0.8800909917684629</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>-0.1876565470567373</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>-0.8462154158300349</v>
       </c>
     </row>
@@ -670,16 +724,19 @@
           <t>Anagliptin_2E10</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
         <v>-0.7316334018665962</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>-0.5415361233077383</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>-0.7176751828714633</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.3462408430284052</v>
       </c>
     </row>
@@ -689,16 +746,19 @@
           <t>Anidulafungin_2B03</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
         <v>1.263877905072586</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>0.5264088233077249</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>0.8992621340705877</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>-0.3471484457011016</v>
       </c>
     </row>
@@ -708,16 +768,19 @@
           <t>Apilimod_1B03</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C15" t="n">
         <v>-0.4152582700280831</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>0.6107289757458451</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>1.003537303040891</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>-1.060195225393582</v>
       </c>
     </row>
@@ -727,16 +790,19 @@
           <t>Apixaban_2H09</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
         <v>-0.6804944127061853</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>0.2173249736324974</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>-0.2013644553801844</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>-0.290802287725581</v>
       </c>
     </row>
@@ -746,16 +812,19 @@
           <t>Apremilast_2F05</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
         <v>-0.2886443203374377</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>-0.178534911260453</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>0.1486117301307572</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>-0.3829936557190705</v>
       </c>
     </row>
@@ -765,16 +834,19 @@
           <t>Aprepitant_2F03</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
         <v>-0.2079368092952155</v>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>-0.6697513029662219</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>-0.01148069735712443</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>0.6371047004069476</v>
       </c>
     </row>
@@ -784,2756 +856,3381 @@
           <t>Astemizole_1D04</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>1.16600758357259</v>
+      <c r="B19" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.3614773221729876</v>
+        <v>1.179378926491304</v>
       </c>
       <c r="D19" t="n">
-        <v>1.913597629284654</v>
+        <v>-0.04168894015307253</v>
       </c>
       <c r="E19" t="n">
-        <v>2.170817640581379</v>
+        <v>2.049634926712888</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1.977738329872573</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Atazanavir_1B10</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-0.3005983162018894</v>
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="1" t="n">
+        <v>0.5</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5722197597163861</v>
+        <v>-0.1880176471697267</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.1879388030544454</v>
+        <v>0.6415695042913032</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.8106607526965967</v>
+        <v>1.198525151350013</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.4124871963039855</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Baricitinib_2C09</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>-0.4450438343036802</v>
+          <t>Atazanavir_1B10</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>0.09672107591854945</v>
+        <v>-0.3005983162018894</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.1811062293868999</v>
+        <v>0.5722197597163861</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.04762353853020884</v>
+        <v>-0.1879388030544454</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-0.8106607526965967</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Bemcentinib_1A04</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.2685307507175189</v>
+          <t>Baricitinib_2C09</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5353993333058208</v>
+        <v>-0.4450438343036802</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.3016415205386078</v>
+        <v>0.09672107591854945</v>
       </c>
       <c r="E22" t="n">
-        <v>-1.015226519130589</v>
+        <v>-0.1811062293868999</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-0.04762353853020884</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Benztropine_1G02</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0.6454902204686465</v>
+          <t>Bemcentinib_1A04</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.1944174309833787</v>
+        <v>0.2685307507175189</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4039522561066831</v>
+        <v>0.5353993333058208</v>
       </c>
       <c r="E23" t="n">
-        <v>0.111383230691951</v>
+        <v>-0.3016415205386078</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-1.015226519130589</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Berbamine_2A09</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>0.1781884457728155</v>
+          <t>Benztropine_1G02</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.7940204313038682</v>
+        <v>0.6454902204686465</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5975670453665038</v>
+        <v>-0.1944174309833787</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8262302939242706</v>
+        <v>0.4039522561066831</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.111383230691951</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Boceprevir_2G09</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0.03095468917081114</v>
+          <t>Berbamine_2A09</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.1792124248494029</v>
+        <v>0.1781884457728155</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1291333411030302</v>
+        <v>-0.7940204313038682</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.05197419283618135</v>
+        <v>0.5975670453665038</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.8262302939242706</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Bortezomib_2G06</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>0.1287813305668085</v>
+          <t>Boceprevir_2G09</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.282926463325205</v>
+        <v>0.03095468917081114</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5619982177191259</v>
+        <v>-0.1792124248494029</v>
       </c>
       <c r="E26" t="n">
-        <v>0.2477578868622678</v>
+        <v>0.1291333411030302</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-0.05197419283618135</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Brequinar_2H03</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>0.1915866374214793</v>
+          <t>Bortezomib_2G06</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>0.410549012910892</v>
+        <v>0.1287813305668085</v>
       </c>
       <c r="D27" t="n">
-        <v>0.6395832650291077</v>
+        <v>-0.282926463325205</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.8488853996488374</v>
+        <v>0.5619982177191259</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.2477578868622678</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Cabozantinib_2G04</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>1.453093941562855</v>
+          <t>Brequinar_2H03</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>0.8270220903243788</v>
+        <v>0.1915866374214793</v>
       </c>
       <c r="D28" t="n">
-        <v>1.953476537603065</v>
+        <v>0.410549012910892</v>
       </c>
       <c r="E28" t="n">
-        <v>0.2370636252182942</v>
+        <v>0.6395832650291077</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-0.8488853996488374</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Camostat_1E10</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>-0.904268838301574</v>
+          <t>Cabozantinib_2G04</t>
+        </is>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>0.9916613437320282</v>
+        <v>1.453093941562855</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.3690070200523907</v>
+        <v>0.8270220903243788</v>
       </c>
       <c r="E29" t="n">
-        <v>-1.186207832333319</v>
+        <v>1.953476537603065</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.2370636252182942</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Captopril_1F07</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>-0.2292356294228719</v>
+          <t>Camostat_1E10</t>
+        </is>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>0.36895661477044</v>
+        <v>-0.904268838301574</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.01434192493541306</v>
+        <v>0.9916613437320282</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.7025274010906619</v>
+        <v>-0.3690070200523907</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-1.186207832333319</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Celecoxib_2G03</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>0.1427595144511974</v>
+          <t>Captopril_1F07</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>-1.064170533628644</v>
+        <v>-0.2292356294228719</v>
       </c>
       <c r="D31" t="n">
-        <v>0.3924488341862304</v>
+        <v>0.36895661477044</v>
       </c>
       <c r="E31" t="n">
-        <v>0.3431651558749501</v>
+        <v>-0.01434192493541306</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-0.7025274010906619</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Chlormidazole_2C05</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>0.08927927953664092</v>
+          <t>Celecoxib_2G03</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>0.7110191508836915</v>
+        <v>0.1427595144511974</v>
       </c>
       <c r="D32" t="n">
-        <v>0.2835949626889647</v>
+        <v>-1.064170533628644</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.08085632471683322</v>
+        <v>0.3924488341862304</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.3431651558749501</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Chlorothiazide_2H08</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>0.1252933037839825</v>
+          <t>Chlormidazole_2C05</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.02678528029677012</v>
+        <v>0.08927927953664092</v>
       </c>
       <c r="D33" t="n">
-        <v>0.02904954949707907</v>
+        <v>0.7110191508836915</v>
       </c>
       <c r="E33" t="n">
-        <v>0.4024121643867344</v>
+        <v>0.2835949626889647</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-0.08085632471683322</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Chlorpromazine_1B02</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>0.4666414351722398</v>
+          <t>Chlorothiazide_2H08</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>0.3772204995775503</v>
+        <v>0.1252933037839825</v>
       </c>
       <c r="D34" t="n">
-        <v>0.004634920976081553</v>
+        <v>-0.02678528029677012</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.008924600062308229</v>
+        <v>0.02904954949707907</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.4024121643867344</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Ciclesonide_1A08</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>-0.5248730762367769</v>
+          <t>Chlorpromazine_1B02</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>0.6335864907041235</v>
+        <v>0.4666414351722398</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.5805879905692412</v>
+        <v>0.3772204995775503</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.7655084134638567</v>
+        <v>0.004634920976081553</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-0.008924600062308229</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Clemastine_2D07</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>0.3099197447868817</v>
+          <t>Ciclesonide_1A08</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.3683711826449275</v>
+        <v>-0.5248730762367769</v>
       </c>
       <c r="D36" t="n">
-        <v>0.1931428002458243</v>
+        <v>0.6335864907041235</v>
       </c>
       <c r="E36" t="n">
-        <v>0.1449490966615319</v>
+        <v>-0.5805879905692412</v>
+      </c>
+      <c r="F36" t="n">
+        <v>-0.7655084134638567</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Clomipramine_1E08</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>0.245199084023848</v>
+          <t>Clemastine_2D07</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>1.382378237162311</v>
+        <v>0.3099197447868817</v>
       </c>
       <c r="D37" t="n">
-        <v>0.6673173396217909</v>
+        <v>-0.3683711826449275</v>
       </c>
       <c r="E37" t="n">
-        <v>-1.168844135947793</v>
+        <v>0.1931428002458243</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.1449490966615319</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Cloperastine_2D06</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>0.7770722972046727</v>
+          <t>Clomipramine_1E08</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>0.5647675051453397</v>
+        <v>0.245199084023848</v>
       </c>
       <c r="D38" t="n">
-        <v>0.5174412479156265</v>
+        <v>1.382378237162311</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.1751298733765081</v>
+        <v>0.6673173396217909</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-1.168844135947793</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Control</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>0</v>
+          <t>Cloperastine_2D06</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>0.7770722972046727</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>0.5647675051453397</v>
       </c>
       <c r="E39" t="n">
-        <v>-4.301484947685056e-16</v>
+        <v>0.5174412479156265</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-0.1751298733765081</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Cycloheximide_2D11</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>0.7375295693641166</v>
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>0.1675784682791557</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.06595230742929564</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.207881616567201</v>
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-4.301484947685056e-16</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Cyclosporine_1F04</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>0.3875719902101739</v>
+          <t>Cycloheximide_2D11</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>0.3427007066173481</v>
+        <v>0.7375295693641166</v>
       </c>
       <c r="D41" t="n">
-        <v>0.1853422680486227</v>
+        <v>0.1675784682791557</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.1952264019766121</v>
+        <v>0.06595230742929564</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-0.207881616567201</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Dabrafenib_2B08</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>0.7796034056522817</v>
+          <t>Cyclosporine_1F04</t>
+        </is>
+      </c>
+      <c r="B42" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.2880449945612448</v>
+        <v>0.3875719902101739</v>
       </c>
       <c r="D42" t="n">
-        <v>0.08081033609433365</v>
+        <v>0.3427007066173481</v>
       </c>
       <c r="E42" t="n">
-        <v>0.4351194812081736</v>
+        <v>0.1853422680486227</v>
+      </c>
+      <c r="F42" t="n">
+        <v>-0.1952264019766121</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Daclatasvir_1C04</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>-0.2206259400235463</v>
+          <t>Dabrafenib_2B08</t>
+        </is>
+      </c>
+      <c r="B43" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>0.000480383506287245</v>
+        <v>0.7796034056522817</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.09593695070765605</v>
+        <v>-0.2880449945612448</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.6111060598304683</v>
+        <v>0.08081033609433365</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.4351194812081736</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Danusertib_2F04</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>0.01211574673524506</v>
+          <t>Daclatasvir_1C04</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.3690144149941976</v>
+        <v>-0.2206259400235463</v>
       </c>
       <c r="D44" t="n">
-        <v>0.06995390013774465</v>
+        <v>0.000480383506287245</v>
       </c>
       <c r="E44" t="n">
-        <v>0.3074803279086114</v>
+        <v>-0.09593695070765605</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-0.6111060598304683</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Dapivirine_2B09</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>1.605061995657834</v>
+          <t>Danusertib_2F04</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>0.4438908089846302</v>
+        <v>0.01211574673524506</v>
       </c>
       <c r="D45" t="n">
-        <v>0.4494950170004858</v>
+        <v>-0.3690144149941976</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.0180597156527279</v>
+        <v>0.06995390013774465</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.3074803279086114</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Darifenacin_2F08</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>-0.3649903740796017</v>
+          <t>Dapivirine_2B09</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>0.440090261898919</v>
+        <v>1.605061995657834</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.05217835183713261</v>
+        <v>0.4438908089846302</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.2306162975300267</v>
+        <v>0.4494950170004858</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-0.0180597156527279</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Darunavir_2H02</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>0.2032175704319614</v>
+          <t>Darifenacin_2F08</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>0.5355082273517713</v>
+        <v>-0.3649903740796017</v>
       </c>
       <c r="D47" t="n">
-        <v>0.7169041482083482</v>
+        <v>0.440090261898919</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.6483784780439696</v>
+        <v>-0.05217835183713261</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-0.2306162975300267</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Delanzomib_2H04</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>-0.9174095518483673</v>
+          <t>Darunavir_2H02</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.3056323957552149</v>
+        <v>0.2032175704319614</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.9359672011059127</v>
+        <v>0.5355082273517713</v>
       </c>
       <c r="E48" t="n">
-        <v>0.2287582488800807</v>
+        <v>0.7169041482083482</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-0.6483784780439696</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Delavirdine_2H05</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>0.574755936534504</v>
+          <t>Delanzomib_2H04</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>0.1264963144687554</v>
+        <v>-0.9174095518483673</v>
       </c>
       <c r="D49" t="n">
-        <v>0.8547624417094832</v>
+        <v>-0.3056323957552149</v>
       </c>
       <c r="E49" t="n">
-        <v>0.08744176996827759</v>
+        <v>-0.9359672011059127</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.2287582488800807</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Desmethyl ferroquine_2E11</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>-0.3251098211045032</v>
+          <t>Delavirdine_2H05</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>0.01590680909890853</v>
+        <v>0.574755936534504</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.5591901716047333</v>
+        <v>0.1264963144687554</v>
       </c>
       <c r="E50" t="n">
-        <v>0.1940409834145038</v>
+        <v>0.8547624417094832</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.08744176996827759</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Digitoxin_2C04</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>1.021679932030368</v>
+          <t>Desmethyl ferroquine_2E11</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>0.9207035273623022</v>
+        <v>-0.3251098211045032</v>
       </c>
       <c r="D51" t="n">
-        <v>1.476694162160699</v>
+        <v>0.01590680909890853</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.3229594943692331</v>
+        <v>-0.5591901716047333</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.1940409834145038</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>Digoxin_1D02</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>0.1152659644611811</v>
+          <t>Digitoxin_2C04</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.01938284362062455</v>
+        <v>1.021679932030368</v>
       </c>
       <c r="D52" t="n">
-        <v>0.03437530575632084</v>
+        <v>0.9207035273623022</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.0649459352365095</v>
+        <v>1.476694162160699</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-0.3229594943692331</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>Doravirine_2D10</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>0.5514696961026997</v>
+          <t>Digoxin_1D02</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C53" t="n">
-        <v>0.2927440705822198</v>
+        <v>0.1152659644611811</v>
       </c>
       <c r="D53" t="n">
-        <v>0.1271136337815972</v>
+        <v>-0.01938284362062455</v>
       </c>
       <c r="E53" t="n">
-        <v>0.01128139753260224</v>
+        <v>0.03437530575632084</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-0.0649459352365095</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>Doxorubicin_2A05</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>-0.3573448231191909</v>
+          <t>Doravirine_2D10</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.1604984568672518</v>
+        <v>0.5514696961026997</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.4493531669274639</v>
+        <v>0.2927440705822198</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.06651895173221371</v>
+        <v>0.1271136337815972</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.01128139753260224</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>Doxycycline_1E05</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>-0.1771929577456249</v>
+          <t>Doxorubicin_2A05</t>
+        </is>
+      </c>
+      <c r="B55" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C55" t="n">
-        <v>0.717696477994239</v>
+        <v>-0.3573448231191909</v>
       </c>
       <c r="D55" t="n">
-        <v>0.02064386059631276</v>
+        <v>-0.1604984568672518</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.5644499159690426</v>
+        <v>-0.4493531669274639</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-0.06651895173221371</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>Drotaverine_1B07</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>-0.04691289974301778</v>
+          <t>Doxycycline_1E05</t>
+        </is>
+      </c>
+      <c r="B56" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>0.4008344765978364</v>
+        <v>-0.1771929577456249</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.2734718393006008</v>
+        <v>0.717696477994239</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.3036953349476318</v>
+        <v>0.02064386059631276</v>
+      </c>
+      <c r="F56" t="n">
+        <v>-0.5644499159690426</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>Dutacatib_2C07</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>-0.718299224868386</v>
+          <t>Drotaverine_1B07</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.3608862067627066</v>
+        <v>-0.04691289974301778</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.4694920275755154</v>
+        <v>0.4008344765978364</v>
       </c>
       <c r="E57" t="n">
-        <v>0.03537708400356773</v>
+        <v>-0.2734718393006008</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-0.3036953349476318</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>E 52862_2D09</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>-0.03267040098935773</v>
+          <t>Dutacatib_2C07</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C58" t="n">
-        <v>0.4083518188947405</v>
+        <v>-0.718299224868386</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.2287170985309586</v>
+        <v>-0.3608862067627066</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.2889876867513992</v>
+        <v>-0.4694920275755154</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.03537708400356773</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>Emetine_1E06</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>-1.205698498154111</v>
+          <t>E 52862_2D09</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0213708922401295</v>
+        <v>-0.03267040098935773</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.7276673835595691</v>
+        <v>0.4083518188947405</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.9861622234435961</v>
+        <v>-0.2287170985309586</v>
+      </c>
+      <c r="F59" t="n">
+        <v>-0.2889876867513992</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>Entacapone_2B05</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>0.3234828775250572</v>
+          <t>Emetine_1E06</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C60" t="n">
-        <v>0.04215737346306108</v>
+        <v>-1.205698498154111</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.2320886198165729</v>
+        <v>0.0213708922401295</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.03428220556188587</v>
+        <v>-0.7276673835595691</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-0.9861622234435961</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>Eszopiclone_2C10</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>-0.2190763318101232</v>
+          <t>Entacapone_2B05</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C61" t="n">
-        <v>0.3523851409120639</v>
+        <v>0.3234828775250572</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.392373608225802</v>
+        <v>0.04215737346306108</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.1118339102937954</v>
+        <v>-0.2320886198165729</v>
+      </c>
+      <c r="F61" t="n">
+        <v>-0.03428220556188587</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>Ethaverine_1A10</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>0.116592157009412</v>
+          <t>Eszopiclone_2C10</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>-0.4751665407298662</v>
+        <v>-0.2190763318101232</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.6165247868100493</v>
+        <v>0.3523851409120639</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.2939722661601734</v>
+        <v>-0.392373608225802</v>
+      </c>
+      <c r="F62" t="n">
+        <v>-0.1118339102937954</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>Favipiravir_1D10</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>0.236228823734119</v>
+          <t>Ethaverine_1A10</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.1147403556294705</v>
+        <v>0.116592157009412</v>
       </c>
       <c r="D63" t="n">
-        <v>0.1726809012191548</v>
+        <v>-0.4751665407298662</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.1844664433998444</v>
+        <v>-0.6165247868100493</v>
+      </c>
+      <c r="F63" t="n">
+        <v>-0.2939722661601734</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>Ferroquine_1G09</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>-0.2493985915539066</v>
+          <t>Favipiravir_1D10</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>0.1390694813412922</v>
+        <v>0.236228823734119</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.5450085088435275</v>
+        <v>-0.1147403556294705</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.4269861318405139</v>
+        <v>0.1726809012191548</v>
+      </c>
+      <c r="F64" t="n">
+        <v>-0.1844664433998444</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>Fluconazole_2A11</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>0.7532824293196918</v>
+          <t>Ferroquine_1G09</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>0.2043499920807101</v>
+        <v>-0.2493985915539066</v>
       </c>
       <c r="D65" t="n">
-        <v>0.989292756207299</v>
+        <v>0.1390694813412922</v>
       </c>
       <c r="E65" t="n">
-        <v>0.1694264711554165</v>
+        <v>-0.5450085088435275</v>
+      </c>
+      <c r="F65" t="n">
+        <v>-0.4269861318405139</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>Fluphenazine_1H06</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>0.02044804815269152</v>
+          <t>Fluconazole_2A11</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>-0.5274449864773795</v>
+        <v>0.7532824293196918</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.7138412859532063</v>
+        <v>0.2043499920807101</v>
       </c>
       <c r="E66" t="n">
-        <v>0.07809922043762606</v>
+        <v>0.989292756207299</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.1694264711554165</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>Fluspirilene_2A02</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>-0.270541954625504</v>
+          <t>Fluphenazine_1H06</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.8134581585447077</v>
+        <v>0.02044804815269152</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.2280147210045997</v>
+        <v>-0.5274449864773795</v>
       </c>
       <c r="E67" t="n">
-        <v>0.2693104731391336</v>
+        <v>-0.7138412859532063</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.07809922043762606</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>GSK 983_1C07</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>0.1279235751615374</v>
+          <t>Fluspirilene_2A02</t>
+        </is>
+      </c>
+      <c r="B68" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>0.3565982351310621</v>
+        <v>-0.270541954625504</v>
       </c>
       <c r="D68" t="n">
-        <v>0.08086461659816799</v>
+        <v>-0.8134581585447077</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.707479557984112</v>
+        <v>-0.2280147210045997</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.2693104731391336</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>GSK-369796_1C03</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>0.1150474578757286</v>
+          <t>GSK 983_1C07</t>
+        </is>
+      </c>
+      <c r="B69" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>0.484110899581697</v>
+        <v>0.1279235751615374</v>
       </c>
       <c r="D69" t="n">
-        <v>0.3855564605165404</v>
+        <v>0.3565982351310621</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.3213978928227204</v>
+        <v>0.08086461659816799</v>
+      </c>
+      <c r="F69" t="n">
+        <v>-0.707479557984112</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>Halofantrine_1D05</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>0.3826982668727473</v>
+          <t>GSK-369796_1C03</t>
+        </is>
+      </c>
+      <c r="B70" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C70" t="n">
-        <v>0.8503184910112733</v>
+        <v>0.1150474578757286</v>
       </c>
       <c r="D70" t="n">
-        <v>1.155943305200816</v>
+        <v>0.484110899581697</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.2537656921436162</v>
+        <v>0.3855564605165404</v>
+      </c>
+      <c r="F70" t="n">
+        <v>-0.3213978928227204</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>Haloperidol_1H07</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>0.1564480586147932</v>
+          <t>Halofantrine_1D05</t>
+        </is>
+      </c>
+      <c r="B71" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C71" t="n">
-        <v>0.5479765057510211</v>
+        <v>0.3826982668727473</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.02493846862937847</v>
+        <v>0.8503184910112733</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.5325819047190382</v>
+        <v>1.155943305200816</v>
+      </c>
+      <c r="F71" t="n">
+        <v>-0.2537656921436162</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>Hanfangchin B_2B04</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>0.6173821970434624</v>
+          <t>Haloperidol_1H07</t>
+        </is>
+      </c>
+      <c r="B72" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C72" t="n">
-        <v>0.6791944722931947</v>
+        <v>0.1564480586147932</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.4685277756545879</v>
+        <v>0.5479765057510211</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.799314890615478</v>
+        <v>-0.02493846862937847</v>
+      </c>
+      <c r="F72" t="n">
+        <v>-0.5325819047190382</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>Hydroxychloroquine_1F11</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>0.384892124851513</v>
+          <t>Hanfangchin B_2B04</t>
+        </is>
+      </c>
+      <c r="B73" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C73" t="n">
-        <v>0.3146593756406581</v>
+        <v>0.6173821970434624</v>
       </c>
       <c r="D73" t="n">
-        <v>0.2346940964124314</v>
+        <v>0.6791944722931947</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.2406800527270312</v>
+        <v>-0.4685277756545879</v>
+      </c>
+      <c r="F73" t="n">
+        <v>-0.799314890615478</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>Hydroxyprogesterone_1E02</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>-0.316718542347657</v>
+          <t>Hydroxychloroquine_1F11</t>
+        </is>
+      </c>
+      <c r="B74" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0516857313537891</v>
+        <v>0.384892124851513</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.3391203619159846</v>
+        <v>0.3146593756406581</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.5355693652785535</v>
+        <v>0.2346940964124314</v>
+      </c>
+      <c r="F74" t="n">
+        <v>-0.2406800527270312</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>Idelalisib_2F07</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>-0.27893535574099</v>
+          <t>Hydroxyprogesterone_1E02</t>
+        </is>
+      </c>
+      <c r="B75" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C75" t="n">
-        <v>-0.2070963193205142</v>
+        <v>-0.316718542347657</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0575543771367057</v>
+        <v>0.0516857313537891</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.1133171627059987</v>
+        <v>-0.3391203619159846</v>
+      </c>
+      <c r="F75" t="n">
+        <v>-0.5355693652785535</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>Imatinib_1H05</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>-0.05128191844607213</v>
+          <t>Idelalisib_2F07</t>
+        </is>
+      </c>
+      <c r="B76" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C76" t="n">
-        <v>0.4102841271554695</v>
+        <v>-0.27893535574099</v>
       </c>
       <c r="D76" t="n">
-        <v>0.05449940985144158</v>
+        <v>-0.2070963193205142</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.2458368928388913</v>
+        <v>0.0575543771367057</v>
+      </c>
+      <c r="F76" t="n">
+        <v>-0.1133171627059987</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>Indinavir_2H06</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>-0.11811640734319</v>
+          <t>Imatinib_1H05</t>
+        </is>
+      </c>
+      <c r="B77" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C77" t="n">
-        <v>0.4859520382761608</v>
+        <v>-0.05128191844607213</v>
       </c>
       <c r="D77" t="n">
-        <v>0.4779088518491336</v>
+        <v>0.4102841271554695</v>
       </c>
       <c r="E77" t="n">
-        <v>0.07538727222954855</v>
+        <v>0.05449940985144158</v>
+      </c>
+      <c r="F77" t="n">
+        <v>-0.2458368928388913</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>Indomethacin_1F06</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
-        <v>-0.2749862607684749</v>
+          <t>Indinavir_2H06</t>
+        </is>
+      </c>
+      <c r="B78" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C78" t="n">
-        <v>-0.4626122464699254</v>
+        <v>-0.11811640734319</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.5568488387362517</v>
+        <v>0.4859520382761608</v>
       </c>
       <c r="E78" t="n">
-        <v>0.3380048335907382</v>
+        <v>0.4779088518491336</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.07538727222954855</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>Itraconazole_1C06</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v>-0.02801340277404251</v>
+          <t>Indomethacin_1F06</t>
+        </is>
+      </c>
+      <c r="B79" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C79" t="n">
-        <v>0.7943019560060046</v>
+        <v>-0.2749862607684749</v>
       </c>
       <c r="D79" t="n">
-        <v>0.5064860853013345</v>
+        <v>-0.4626122464699254</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.2131273339745219</v>
+        <v>-0.5568488387362517</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.3380048335907382</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>Ivermectin_1F05</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>1.269121662141448</v>
+          <t>Itraconazole_1C06</t>
+        </is>
+      </c>
+      <c r="B80" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C80" t="n">
-        <v>-1.155468753359017</v>
+        <v>-0.02801340277404251</v>
       </c>
       <c r="D80" t="n">
-        <v>2.290495540197476</v>
+        <v>0.7943019560060046</v>
       </c>
       <c r="E80" t="n">
-        <v>2.528734194301151</v>
+        <v>0.5064860853013345</v>
+      </c>
+      <c r="F80" t="n">
+        <v>-0.2131273339745219</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>JQ 1_2D03</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
-        <v>0.7854519192534317</v>
+          <t>Ivermectin_1F05</t>
+        </is>
+      </c>
+      <c r="B81" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="C81" t="n">
-        <v>0.5550543233920194</v>
+        <v>2.184687101513084</v>
       </c>
       <c r="D81" t="n">
-        <v>0.164237832066734</v>
+        <v>-1.311578121352789</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.4972329630814895</v>
+        <v>1.977491611320569</v>
+      </c>
+      <c r="F81" t="n">
+        <v>2.317001505868029</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="inlineStr">
-        <is>
-          <t>Ketoconazole_1B06</t>
-        </is>
-      </c>
-      <c r="B82" t="n">
-        <v>0.4796607165559593</v>
+      <c r="A82" s="1" t="n"/>
+      <c r="B82" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C82" t="n">
-        <v>0.3523191290405451</v>
+        <v>0.5479066707926816</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.03572155672959369</v>
+        <v>-1.378868614661273</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.396310159710116</v>
+        <v>2.182956800385434</v>
+      </c>
+      <c r="F82" t="n">
+        <v>2.223920963495727</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>LY 2228820_1C10</t>
-        </is>
-      </c>
-      <c r="B83" t="n">
-        <v>0.2064923459748315</v>
+          <t>JQ 1_2D03</t>
+        </is>
+      </c>
+      <c r="B83" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C83" t="n">
-        <v>0.7436141904106733</v>
+        <v>0.7854519192534317</v>
       </c>
       <c r="D83" t="n">
-        <v>0.3573185019340448</v>
+        <v>0.5550543233920194</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.4961438895887894</v>
+        <v>0.164237832066734</v>
+      </c>
+      <c r="F83" t="n">
+        <v>-0.4972329630814895</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>Lonafarnib_1C05</t>
-        </is>
-      </c>
-      <c r="B84" t="n">
-        <v>-0.04115790841148268</v>
+          <t>Ketoconazole_1B06</t>
+        </is>
+      </c>
+      <c r="B84" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C84" t="n">
-        <v>0.2912131985000179</v>
+        <v>0.4796607165559593</v>
       </c>
       <c r="D84" t="n">
-        <v>0.5341936346040705</v>
+        <v>0.3523191290405451</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.01181837133218715</v>
+        <v>-0.03572155672959369</v>
+      </c>
+      <c r="F84" t="n">
+        <v>-0.396310159710116</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>Lopinavir_1H04</t>
-        </is>
-      </c>
-      <c r="B85" t="n">
-        <v>-0.2834821253594278</v>
+          <t>LY 2228820_1C10</t>
+        </is>
+      </c>
+      <c r="B85" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C85" t="n">
-        <v>-0.249417947411473</v>
+        <v>0.2064923459748315</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.01223162453329433</v>
+        <v>0.7436141904106733</v>
       </c>
       <c r="E85" t="n">
-        <v>0.09752579887567249</v>
+        <v>0.3573185019340448</v>
+      </c>
+      <c r="F85" t="n">
+        <v>-0.4961438895887894</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>Loratidine_1H09</t>
-        </is>
-      </c>
-      <c r="B86" t="n">
-        <v>0.2315522938321333</v>
+          <t>Lonafarnib_1C05</t>
+        </is>
+      </c>
+      <c r="B86" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C86" t="n">
-        <v>0.2956804870324201</v>
+        <v>-0.04115790841148268</v>
       </c>
       <c r="D86" t="n">
-        <v>0.2793373121287037</v>
+        <v>0.2912131985000179</v>
       </c>
       <c r="E86" t="n">
-        <v>-0.237124225814263</v>
+        <v>0.5341936346040705</v>
+      </c>
+      <c r="F86" t="n">
+        <v>-0.01181837133218715</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>Losartan_2E08</t>
-        </is>
-      </c>
-      <c r="B87" t="n">
-        <v>-0.09199133181721585</v>
+          <t>Lopinavir_1H04</t>
+        </is>
+      </c>
+      <c r="B87" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C87" t="n">
-        <v>0.3212194733840971</v>
+        <v>-0.2834821253594278</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.2774049871498455</v>
+        <v>-0.249417947411473</v>
       </c>
       <c r="E87" t="n">
-        <v>-0.07074218395463329</v>
+        <v>-0.01223162453329433</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.09752579887567249</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>Lumefantrine_2B02</t>
-        </is>
-      </c>
-      <c r="B88" t="n">
-        <v>0.9528502624778579</v>
+          <t>Loratidine_1H09</t>
+        </is>
+      </c>
+      <c r="B88" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C88" t="n">
-        <v>-0.1800949421208166</v>
+        <v>0.2315522938321333</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.06176016145253155</v>
+        <v>0.2956804870324201</v>
       </c>
       <c r="E88" t="n">
-        <v>-0.1344392027339364</v>
+        <v>0.2793373121287037</v>
+      </c>
+      <c r="F88" t="n">
+        <v>-0.237124225814263</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>Lusutrombopag_1A03</t>
-        </is>
-      </c>
-      <c r="B89" t="n">
-        <v>0.62655941359519</v>
+          <t>Losartan_2E08</t>
+        </is>
+      </c>
+      <c r="B89" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C89" t="n">
-        <v>-0.02666957137651202</v>
+        <v>-0.09199133181721585</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.5262559736569817</v>
+        <v>0.3212194733840971</v>
       </c>
       <c r="E89" t="n">
-        <v>-0.522984480233585</v>
+        <v>-0.2774049871498455</v>
+      </c>
+      <c r="F89" t="n">
+        <v>-0.07074218395463329</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>MK-2206_1G06</t>
-        </is>
-      </c>
-      <c r="B90" t="n">
-        <v>0.3801704534899777</v>
+          <t>Lumefantrine_2B02</t>
+        </is>
+      </c>
+      <c r="B90" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C90" t="n">
-        <v>0.7551880663571529</v>
+        <v>0.9528502624778579</v>
       </c>
       <c r="D90" t="n">
-        <v>0.8829066041152964</v>
+        <v>-0.1800949421208166</v>
       </c>
       <c r="E90" t="n">
-        <v>-0.2672650527220914</v>
+        <v>-0.06176016145253155</v>
+      </c>
+      <c r="F90" t="n">
+        <v>-0.1344392027339364</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>MRT 68601_2E03</t>
-        </is>
-      </c>
-      <c r="B91" t="n">
-        <v>0.5386194544025046</v>
+          <t>Lusutrombopag_1A03</t>
+        </is>
+      </c>
+      <c r="B91" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C91" t="n">
-        <v>-0.4148164750943715</v>
+        <v>0.62655941359519</v>
       </c>
       <c r="D91" t="n">
-        <v>0.1644753784451281</v>
+        <v>-0.02666957137651202</v>
       </c>
       <c r="E91" t="n">
-        <v>0.1154628902696445</v>
+        <v>-0.5262559736569817</v>
+      </c>
+      <c r="F91" t="n">
+        <v>-0.522984480233585</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>Manidipine_1G03</t>
-        </is>
-      </c>
-      <c r="B92" t="n">
-        <v>0.8536487870991653</v>
+          <t>MK-2206_1G06</t>
+        </is>
+      </c>
+      <c r="B92" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C92" t="n">
-        <v>0.3599285892360157</v>
+        <v>0.3801704534899777</v>
       </c>
       <c r="D92" t="n">
-        <v>1.131411907723572</v>
+        <v>0.7551880663571529</v>
       </c>
       <c r="E92" t="n">
-        <v>0.4085735023791953</v>
+        <v>0.8829066041152964</v>
+      </c>
+      <c r="F92" t="n">
+        <v>-0.2672650527220914</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>Merimepodib_2D08</t>
-        </is>
-      </c>
-      <c r="B93" t="n">
-        <v>0.2518762612575318</v>
+          <t>MRT 68601_2E03</t>
+        </is>
+      </c>
+      <c r="B93" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C93" t="n">
-        <v>0.001345077437888515</v>
+        <v>0.5386194544025046</v>
       </c>
       <c r="D93" t="n">
-        <v>0.219466016775159</v>
+        <v>-0.4148164750943715</v>
       </c>
       <c r="E93" t="n">
-        <v>0.2593109093582156</v>
+        <v>0.1644753784451281</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.1154628902696445</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>Metformin_2A10</t>
-        </is>
-      </c>
-      <c r="B94" t="n">
-        <v>-0.2885809052882106</v>
+          <t>Manidipine_1G03</t>
+        </is>
+      </c>
+      <c r="B94" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C94" t="n">
-        <v>-0.9292084414447036</v>
+        <v>0.908365496725829</v>
       </c>
       <c r="D94" t="n">
-        <v>0.3643708825694489</v>
+        <v>0.4016420321219515</v>
       </c>
       <c r="E94" t="n">
-        <v>0.9817874320616721</v>
+        <v>1.265231749484873</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.3265604863229901</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="inlineStr">
-        <is>
-          <t>Midostaurin_1G08</t>
-        </is>
-      </c>
-      <c r="B95" t="n">
-        <v>-0.6042886812921108</v>
+      <c r="A95" s="1" t="n"/>
+      <c r="B95" s="1" t="n">
+        <v>0.5</v>
       </c>
       <c r="C95" t="n">
-        <v>-0.9560863517018278</v>
+        <v>-0.115298104046268</v>
       </c>
       <c r="D95" t="n">
-        <v>-0.4117802439736739</v>
+        <v>0.3579303450268081</v>
       </c>
       <c r="E95" t="n">
-        <v>0.6411892675065783</v>
+        <v>-0.1206359555688075</v>
+      </c>
+      <c r="F95" t="n">
+        <v>-0.4717495637724423</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>Migalastat_2A08</t>
-        </is>
-      </c>
-      <c r="B96" t="n">
-        <v>-0.9850094209615627</v>
+          <t>Merimepodib_2D08</t>
+        </is>
+      </c>
+      <c r="B96" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C96" t="n">
-        <v>-0.7572251379235938</v>
+        <v>0.2518762612575318</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.2756102861768078</v>
+        <v>0.001345077437888515</v>
       </c>
       <c r="E96" t="n">
-        <v>0.3940219467534944</v>
+        <v>0.219466016775159</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.2593109093582156</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>Molnupiravir</t>
-        </is>
-      </c>
-      <c r="B97" t="n">
-        <v>0.1295813680753892</v>
+          <t>Metformin_2A10</t>
+        </is>
+      </c>
+      <c r="B97" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C97" t="n">
-        <v>0.007168820448554378</v>
+        <v>-0.2885809052882106</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.1500702543677909</v>
+        <v>-0.9292084414447036</v>
       </c>
       <c r="E97" t="n">
-        <v>0.0170338052639348</v>
+        <v>0.3643708825694489</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.9817874320616721</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>Mycophenolic acid_2B10</t>
-        </is>
-      </c>
-      <c r="B98" t="n">
-        <v>0.9615437740689661</v>
+          <t>Midostaurin_1G08</t>
+        </is>
+      </c>
+      <c r="B98" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C98" t="n">
-        <v>0.189263042289968</v>
+        <v>-0.6943452443152833</v>
       </c>
       <c r="D98" t="n">
-        <v>-0.09611730409393757</v>
+        <v>-0.8725076430398409</v>
       </c>
       <c r="E98" t="n">
-        <v>-0.04303053837202017</v>
+        <v>-0.4201745556806588</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.5824648871824138</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="inlineStr">
-        <is>
-          <t>N-Desethylamodiaquine_1A07</t>
-        </is>
-      </c>
-      <c r="B99" t="n">
-        <v>-0.005373685455209543</v>
+      <c r="A99" s="1" t="n"/>
+      <c r="B99" s="1" t="n">
+        <v>0.5</v>
       </c>
       <c r="C99" t="n">
-        <v>-0.6518067822530584</v>
+        <v>1.51799287339628</v>
       </c>
       <c r="D99" t="n">
-        <v>-0.8438884968471562</v>
+        <v>0.7089922072677242</v>
       </c>
       <c r="E99" t="n">
-        <v>-0.2933091497613136</v>
+        <v>0.01496391979886937</v>
+      </c>
+      <c r="F99" t="n">
+        <v>-0.5408840977974234</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>Nafamostat_1E03</t>
-        </is>
-      </c>
-      <c r="B100" t="n">
-        <v>-0.880143134528103</v>
+          <t>Migalastat_2A08</t>
+        </is>
+      </c>
+      <c r="B100" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C100" t="n">
-        <v>0.213572285045128</v>
+        <v>-0.9850094209615627</v>
       </c>
       <c r="D100" t="n">
-        <v>-1.028918818135025</v>
+        <v>-0.7572251379235938</v>
       </c>
       <c r="E100" t="n">
-        <v>-0.5473168016524816</v>
+        <v>-0.2756102861768078</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.3940219467534944</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>Naphtoquine_2H10</t>
-        </is>
-      </c>
-      <c r="B101" t="n">
-        <v>0.5572263322568283</v>
+          <t>Molnupiravir</t>
+        </is>
+      </c>
+      <c r="B101" s="1" t="n">
+        <v>0.5</v>
       </c>
       <c r="C101" t="n">
-        <v>0.2619976711111155</v>
+        <v>0.08505659622952547</v>
       </c>
       <c r="D101" t="n">
-        <v>0.5085440466607076</v>
+        <v>-0.02632209341287585</v>
       </c>
       <c r="E101" t="n">
-        <v>-0.1012369355152835</v>
+        <v>0.02342837740574459</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.135506565642988</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="inlineStr">
-        <is>
-          <t>Nebivolol_2F02</t>
-        </is>
-      </c>
-      <c r="B102" t="n">
-        <v>-0.6945963756640871</v>
+      <c r="A102" s="1" t="n"/>
+      <c r="B102" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C102" t="n">
-        <v>-0.7568947024919089</v>
+        <v>0.1295813680753892</v>
       </c>
       <c r="D102" t="n">
-        <v>-0.7856952325896703</v>
+        <v>0.007168820448554378</v>
       </c>
       <c r="E102" t="n">
-        <v>0.3810265285956518</v>
+        <v>-0.1500702543677909</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.0170338052639348</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="inlineStr">
-        <is>
-          <t>Nelfinavir_1A09</t>
-        </is>
-      </c>
-      <c r="B103" t="n">
-        <v>-0.1628607757883275</v>
+      <c r="A103" s="1" t="n"/>
+      <c r="B103" s="1" t="n">
+        <v>10</v>
       </c>
       <c r="C103" t="n">
-        <v>-0.3228663069896933</v>
+        <v>-0.2083483224108344</v>
       </c>
       <c r="D103" t="n">
-        <v>-0.5115144098563763</v>
+        <v>0.1827190872404788</v>
       </c>
       <c r="E103" t="n">
-        <v>-0.3166389509388199</v>
+        <v>-0.03803463529764863</v>
+      </c>
+      <c r="F103" t="n">
+        <v>-0.04948697203839338</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="1" t="inlineStr">
-        <is>
-          <t>Niclosamide_1A02</t>
-        </is>
-      </c>
-      <c r="B104" t="n">
-        <v>0.1187349128498822</v>
+      <c r="A104" s="1" t="n"/>
+      <c r="B104" s="1" t="n">
+        <v>25</v>
       </c>
       <c r="C104" t="n">
-        <v>0.831359222422561</v>
+        <v>-0.02009181003587849</v>
       </c>
       <c r="D104" t="n">
-        <v>0.6904404649804379</v>
+        <v>-0.006679277629543853</v>
       </c>
       <c r="E104" t="n">
-        <v>-1.139381643627865</v>
+        <v>-0.262889193199922</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.01464358121613347</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>Nifedipine_2E09</t>
-        </is>
-      </c>
-      <c r="B105" t="n">
-        <v>0.1179668406086896</v>
+          <t>Mycophenolic acid_2B10</t>
+        </is>
+      </c>
+      <c r="B105" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C105" t="n">
-        <v>-0.1035242801252132</v>
+        <v>0.9615437740689661</v>
       </c>
       <c r="D105" t="n">
-        <v>-0.1742271058115805</v>
+        <v>0.189263042289968</v>
       </c>
       <c r="E105" t="n">
-        <v>0.3369384121748608</v>
+        <v>-0.09611730409393757</v>
+      </c>
+      <c r="F105" t="n">
+        <v>-0.04303053837202017</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>Nitazoxanide_1G05</t>
-        </is>
-      </c>
-      <c r="B106" t="n">
-        <v>-0.05618071775741673</v>
+          <t>N-Desethylamodiaquine_1A07</t>
+        </is>
+      </c>
+      <c r="B106" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C106" t="n">
-        <v>0.7086703545260173</v>
+        <v>-0.005373685455209543</v>
       </c>
       <c r="D106" t="n">
-        <v>0.5349258553080724</v>
+        <v>-0.6518067822530584</v>
       </c>
       <c r="E106" t="n">
-        <v>-0.8656414049210316</v>
+        <v>-0.8438884968471562</v>
+      </c>
+      <c r="F106" t="n">
+        <v>-0.2933091497613136</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>ONO 5334_1A05</t>
-        </is>
-      </c>
-      <c r="B107" t="n">
-        <v>0.2180146791176002</v>
+          <t>Nafamostat_1E03</t>
+        </is>
+      </c>
+      <c r="B107" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C107" t="n">
-        <v>-0.1273514758069876</v>
+        <v>-0.880143134528103</v>
       </c>
       <c r="D107" t="n">
-        <v>-0.2158715929924918</v>
+        <v>0.213572285045128</v>
       </c>
       <c r="E107" t="n">
-        <v>-0.2904367301896004</v>
+        <v>-1.028918818135025</v>
+      </c>
+      <c r="F107" t="n">
+        <v>-0.5473168016524816</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>Osimertinib_2D05</t>
-        </is>
-      </c>
-      <c r="B108" t="n">
-        <v>0.1478496177232384</v>
+          <t>Naphtoquine_2H10</t>
+        </is>
+      </c>
+      <c r="B108" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C108" t="n">
-        <v>0.6403627660737495</v>
+        <v>0.5572263322568283</v>
       </c>
       <c r="D108" t="n">
-        <v>-0.6632502189132079</v>
+        <v>0.2619976711111155</v>
       </c>
       <c r="E108" t="n">
-        <v>-0.7046148228057925</v>
+        <v>0.5085440466607076</v>
+      </c>
+      <c r="F108" t="n">
+        <v>-0.1012369355152835</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>Oxatomide_2F10</t>
-        </is>
-      </c>
-      <c r="B109" t="n">
-        <v>-0.5569785056906875</v>
+          <t>Nebivolol_2F02</t>
+        </is>
+      </c>
+      <c r="B109" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C109" t="n">
-        <v>0.1090628510739194</v>
+        <v>-0.6945963756640871</v>
       </c>
       <c r="D109" t="n">
-        <v>0.1510590677158157</v>
+        <v>-0.7568947024919089</v>
       </c>
       <c r="E109" t="n">
-        <v>-0.293098397198873</v>
+        <v>-0.7856952325896703</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.3810265285956518</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>Oxyclozanide_2C03</t>
-        </is>
-      </c>
-      <c r="B110" t="n">
-        <v>0.9161988211061722</v>
+          <t>Nelfinavir_1A09</t>
+        </is>
+      </c>
+      <c r="B110" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C110" t="n">
-        <v>0.9949159287434411</v>
+        <v>-0.1628607757883275</v>
       </c>
       <c r="D110" t="n">
-        <v>0.9107324905960168</v>
+        <v>-0.3228663069896933</v>
       </c>
       <c r="E110" t="n">
-        <v>-0.7164568704755737</v>
+        <v>-0.5115144098563763</v>
+      </c>
+      <c r="F110" t="n">
+        <v>-0.3166389509388199</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>Ozanimod_1H08</t>
-        </is>
-      </c>
-      <c r="B111" t="n">
-        <v>-0.03338517733675356</v>
+          <t>Niclosamide_1A02</t>
+        </is>
+      </c>
+      <c r="B111" s="1" t="n">
+        <v>0.5</v>
       </c>
       <c r="C111" t="n">
-        <v>-0.01499465081914728</v>
+        <v>0.1187349128498822</v>
       </c>
       <c r="D111" t="n">
-        <v>-0.2960114363296995</v>
+        <v>0.831359222422561</v>
       </c>
       <c r="E111" t="n">
-        <v>0.2121482442972394</v>
+        <v>0.6904404649804379</v>
+      </c>
+      <c r="F111" t="n">
+        <v>-1.139381643627865</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>PB 28_2C08</t>
-        </is>
-      </c>
-      <c r="B112" t="n">
-        <v>0.6862100438072893</v>
+          <t>Nifedipine_2E09</t>
+        </is>
+      </c>
+      <c r="B112" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C112" t="n">
-        <v>0.6478110076774229</v>
+        <v>0.1179668406086896</v>
       </c>
       <c r="D112" t="n">
-        <v>0.4926590136029894</v>
+        <v>-0.1035242801252132</v>
       </c>
       <c r="E112" t="n">
-        <v>-0.1150365914564877</v>
+        <v>-0.1742271058115805</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.3369384121748608</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>PD 144418_2E04</t>
-        </is>
-      </c>
-      <c r="B113" t="n">
-        <v>0.5757173291292069</v>
+          <t>Nitazoxanide_1G05</t>
+        </is>
+      </c>
+      <c r="B113" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C113" t="n">
-        <v>0.5810153430254732</v>
+        <v>-0.05618071775741673</v>
       </c>
       <c r="D113" t="n">
-        <v>0.4790478969724551</v>
+        <v>0.7086703545260173</v>
       </c>
       <c r="E113" t="n">
-        <v>-0.250375962145533</v>
+        <v>0.5349258553080724</v>
+      </c>
+      <c r="F113" t="n">
+        <v>-0.8656414049210316</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>Papaverine_1C02</t>
-        </is>
-      </c>
-      <c r="B114" t="n">
-        <v>-0.4195133794557779</v>
+          <t>ONO 5334_1A05</t>
+        </is>
+      </c>
+      <c r="B114" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C114" t="n">
-        <v>0.4624493075030621</v>
+        <v>0.2180146791176002</v>
       </c>
       <c r="D114" t="n">
-        <v>0.2710972107861225</v>
+        <v>-0.1273514758069876</v>
       </c>
       <c r="E114" t="n">
-        <v>-0.2494581519626762</v>
+        <v>-0.2158715929924918</v>
+      </c>
+      <c r="F114" t="n">
+        <v>-0.2904367301896004</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>Paroxetine_2G11</t>
-        </is>
-      </c>
-      <c r="B115" t="n">
-        <v>0.8914340492019756</v>
+          <t>Osimertinib_2D05</t>
+        </is>
+      </c>
+      <c r="B115" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C115" t="n">
-        <v>0.2190265188482534</v>
+        <v>0.1478496177232384</v>
       </c>
       <c r="D115" t="n">
-        <v>1.430046513059233</v>
+        <v>0.6403627660737495</v>
       </c>
       <c r="E115" t="n">
-        <v>0.03334999445357167</v>
+        <v>-0.6632502189132079</v>
+      </c>
+      <c r="F115" t="n">
+        <v>-0.7046148228057925</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>Pevonedistat_1H02</t>
-        </is>
-      </c>
-      <c r="B116" t="n">
-        <v>-0.3834323541540929</v>
+          <t>Oxatomide_2F10</t>
+        </is>
+      </c>
+      <c r="B116" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C116" t="n">
-        <v>0.2963219351924651</v>
+        <v>-0.5569785056906875</v>
       </c>
       <c r="D116" t="n">
-        <v>-0.3740613056363467</v>
+        <v>0.1090628510739194</v>
       </c>
       <c r="E116" t="n">
-        <v>-0.3386681888221596</v>
+        <v>0.1510590677158157</v>
+      </c>
+      <c r="F116" t="n">
+        <v>-0.293098397198873</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>Pexidartanib_1B05</t>
-        </is>
-      </c>
-      <c r="B117" t="n">
-        <v>-0.4508945224814354</v>
+          <t>Oxyclozanide_2C03</t>
+        </is>
+      </c>
+      <c r="B117" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C117" t="n">
-        <v>0.4522382296816141</v>
+        <v>0.9161988211061722</v>
       </c>
       <c r="D117" t="n">
-        <v>0.04522910594966218</v>
+        <v>0.9949159287434411</v>
       </c>
       <c r="E117" t="n">
-        <v>-0.3513358974835991</v>
+        <v>0.9107324905960168</v>
+      </c>
+      <c r="F117" t="n">
+        <v>-0.7164568704755737</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>Pimozide_2G07</t>
-        </is>
-      </c>
-      <c r="B118" t="n">
-        <v>1.27744827067712</v>
+          <t>Ozanimod_1H08</t>
+        </is>
+      </c>
+      <c r="B118" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C118" t="n">
-        <v>-1.027447753486622</v>
+        <v>-0.03338517733675356</v>
       </c>
       <c r="D118" t="n">
-        <v>2.213994435844801</v>
+        <v>-0.01499465081914728</v>
       </c>
       <c r="E118" t="n">
-        <v>2.738304598604701</v>
+        <v>-0.2960114363296995</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.2121482442972394</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>Piperaquine_2H11</t>
-        </is>
-      </c>
-      <c r="B119" t="n">
-        <v>-0.415766702413043</v>
+          <t>PB 28_2C08</t>
+        </is>
+      </c>
+      <c r="B119" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C119" t="n">
-        <v>-0.3016894465471774</v>
+        <v>0.6862100438072893</v>
       </c>
       <c r="D119" t="n">
-        <v>-0.4463670064280581</v>
+        <v>0.6478110076774229</v>
       </c>
       <c r="E119" t="n">
-        <v>0.3287078883858021</v>
+        <v>0.4926590136029894</v>
+      </c>
+      <c r="F119" t="n">
+        <v>-0.1150365914564877</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>Ponatinib_2A07</t>
-        </is>
-      </c>
-      <c r="B120" t="n">
-        <v>0.311138834945212</v>
+          <t>PD 144418_2E04</t>
+        </is>
+      </c>
+      <c r="B120" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C120" t="n">
-        <v>0.4603013135775326</v>
+        <v>0.5757173291292069</v>
       </c>
       <c r="D120" t="n">
-        <v>1.991990357346719</v>
+        <v>0.5810153430254732</v>
       </c>
       <c r="E120" t="n">
-        <v>-0.5599510586901808</v>
+        <v>0.4790478969724551</v>
+      </c>
+      <c r="F120" t="n">
+        <v>-0.250375962145533</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>Posaconazole_1H10</t>
-        </is>
-      </c>
-      <c r="B121" t="n">
-        <v>-0.1264141597403937</v>
+          <t>Papaverine_1C02</t>
+        </is>
+      </c>
+      <c r="B121" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C121" t="n">
-        <v>0.4100344513510473</v>
+        <v>-0.4195133794557779</v>
       </c>
       <c r="D121" t="n">
-        <v>0.1037300416693826</v>
+        <v>0.4624493075030621</v>
       </c>
       <c r="E121" t="n">
-        <v>-0.2588162010915133</v>
+        <v>0.2710972107861225</v>
+      </c>
+      <c r="F121" t="n">
+        <v>-0.2494581519626762</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>Promethazine_2F11</t>
-        </is>
-      </c>
-      <c r="B122" t="n">
-        <v>-0.4772830783020438</v>
+          <t>Paroxetine_2G11</t>
+        </is>
+      </c>
+      <c r="B122" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C122" t="n">
-        <v>-0.4074877228931961</v>
+        <v>0.8914340492019756</v>
       </c>
       <c r="D122" t="n">
-        <v>-0.1835245817075829</v>
+        <v>0.2190265188482534</v>
       </c>
       <c r="E122" t="n">
-        <v>0.1380238146861709</v>
+        <v>1.430046513059233</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.03334999445357167</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>Proscillaridin_2C06</t>
-        </is>
-      </c>
-      <c r="B123" t="n">
-        <v>0.3245339680140339</v>
+          <t>Pevonedistat_1H02</t>
+        </is>
+      </c>
+      <c r="B123" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C123" t="n">
-        <v>0.885581504028075</v>
+        <v>-0.3834323541540929</v>
       </c>
       <c r="D123" t="n">
-        <v>0.7590227048440796</v>
+        <v>0.2963219351924651</v>
       </c>
       <c r="E123" t="n">
-        <v>-0.2308985439777884</v>
+        <v>-0.3740613056363467</v>
+      </c>
+      <c r="F123" t="n">
+        <v>-0.3386681888221596</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>Pyronaridine_1H11</t>
-        </is>
-      </c>
-      <c r="B124" t="n">
-        <v>-0.1459430948744932</v>
+          <t>Pexidartanib_1B05</t>
+        </is>
+      </c>
+      <c r="B124" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C124" t="n">
-        <v>0.1548186486040837</v>
+        <v>-0.4508945224814354</v>
       </c>
       <c r="D124" t="n">
-        <v>0.2872904994920805</v>
+        <v>0.4522382296816141</v>
       </c>
       <c r="E124" t="n">
-        <v>0.4433989382860338</v>
+        <v>0.04522910594966218</v>
+      </c>
+      <c r="F124" t="n">
+        <v>-0.3513358974835991</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>R 7112_1B09</t>
-        </is>
-      </c>
-      <c r="B125" t="n">
-        <v>0.1410825720055377</v>
+          <t>Pimozide_2G07</t>
+        </is>
+      </c>
+      <c r="B125" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C125" t="n">
-        <v>0.4617846665335467</v>
+        <v>1.27744827067712</v>
       </c>
       <c r="D125" t="n">
-        <v>-0.0103584566877212</v>
+        <v>-1.027447753486622</v>
       </c>
       <c r="E125" t="n">
-        <v>-0.2989517601619393</v>
+        <v>2.213994435844801</v>
+      </c>
+      <c r="F125" t="n">
+        <v>2.738304598604701</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>RVX 208_2D04</t>
-        </is>
-      </c>
-      <c r="B126" t="n">
-        <v>0.5980375773185692</v>
+          <t>Piperaquine_2H11</t>
+        </is>
+      </c>
+      <c r="B126" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C126" t="n">
-        <v>-0.1683456635318415</v>
+        <v>-0.415766702413043</v>
       </c>
       <c r="D126" t="n">
-        <v>0.1841572532136753</v>
+        <v>-0.3016894465471774</v>
       </c>
       <c r="E126" t="n">
-        <v>0.4054835802424032</v>
+        <v>-0.4463670064280581</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.3287078883858021</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>Rapamycin_2A06</t>
-        </is>
-      </c>
-      <c r="B127" t="n">
-        <v>0.1565523395350715</v>
+          <t>Ponatinib_2A07</t>
+        </is>
+      </c>
+      <c r="B127" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C127" t="n">
-        <v>1.257216766708979</v>
+        <v>0.3236711472418856</v>
       </c>
       <c r="D127" t="n">
-        <v>0.5200029227700703</v>
+        <v>0.490302854719626</v>
       </c>
       <c r="E127" t="n">
-        <v>-0.8218808810145058</v>
+        <v>2.104585310378906</v>
+      </c>
+      <c r="F127" t="n">
+        <v>-0.6452858215133633</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="1" t="inlineStr">
-        <is>
-          <t>Ravuconazole_1D06</t>
-        </is>
-      </c>
-      <c r="B128" t="n">
-        <v>0.594161180864436</v>
+      <c r="A128" s="1" t="n"/>
+      <c r="B128" s="1" t="n">
+        <v>0.5</v>
       </c>
       <c r="C128" t="n">
-        <v>0.5686762105159332</v>
+        <v>0.663268623151414</v>
       </c>
       <c r="D128" t="n">
-        <v>1.810976617510947</v>
+        <v>0.3782819481409542</v>
       </c>
       <c r="E128" t="n">
-        <v>1.037564906123961</v>
+        <v>1.000492797875837</v>
+      </c>
+      <c r="F128" t="n">
+        <v>-0.03607948913270207</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>Regorafenib_1B04</t>
-        </is>
-      </c>
-      <c r="B129" t="n">
-        <v>1.218023520457287</v>
+          <t>Posaconazole_1H10</t>
+        </is>
+      </c>
+      <c r="B129" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C129" t="n">
-        <v>0.3948428121889413</v>
+        <v>-0.1264141597403937</v>
       </c>
       <c r="D129" t="n">
-        <v>1.895624658169395</v>
+        <v>0.4100344513510473</v>
       </c>
       <c r="E129" t="n">
-        <v>0.4151034702075635</v>
+        <v>0.1037300416693826</v>
+      </c>
+      <c r="F129" t="n">
+        <v>-0.2588162010915133</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>Remdesivir_1A06</t>
-        </is>
-      </c>
-      <c r="B130" t="n">
-        <v>0.3641042077865169</v>
+          <t>Promethazine_2F11</t>
+        </is>
+      </c>
+      <c r="B130" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C130" t="n">
-        <v>0.2565777699609278</v>
+        <v>-0.4772830783020438</v>
       </c>
       <c r="D130" t="n">
-        <v>0.2241436641352575</v>
+        <v>-0.4074877228931961</v>
       </c>
       <c r="E130" t="n">
-        <v>-0.2402165376715617</v>
+        <v>-0.1835245817075829</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.1380238146861709</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>Ribavirin_1F08</t>
-        </is>
-      </c>
-      <c r="B131" t="n">
-        <v>0.2653656800031687</v>
+          <t>Proscillaridin_2C06</t>
+        </is>
+      </c>
+      <c r="B131" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C131" t="n">
-        <v>-0.1136893925678733</v>
+        <v>0.3245339680140339</v>
       </c>
       <c r="D131" t="n">
-        <v>0.1336743126432729</v>
+        <v>0.885581504028075</v>
       </c>
       <c r="E131" t="n">
-        <v>0.1388073721431359</v>
+        <v>0.7590227048440796</v>
+      </c>
+      <c r="F131" t="n">
+        <v>-0.2308985439777884</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>Ritonavir_1A11</t>
-        </is>
-      </c>
-      <c r="B132" t="n">
-        <v>0.2846747638820607</v>
+          <t>Pyronaridine_1H11</t>
+        </is>
+      </c>
+      <c r="B132" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C132" t="n">
-        <v>-0.374750174219101</v>
+        <v>-0.1459430948744932</v>
       </c>
       <c r="D132" t="n">
-        <v>-0.5820299035319859</v>
+        <v>0.1548186486040837</v>
       </c>
       <c r="E132" t="n">
-        <v>-0.305666428526834</v>
+        <v>0.2872904994920805</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.4433989382860338</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>Ruxolitinib_1B11</t>
-        </is>
-      </c>
-      <c r="B133" t="n">
-        <v>0.2614854567045539</v>
+          <t>R 7112_1B09</t>
+        </is>
+      </c>
+      <c r="B133" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C133" t="n">
-        <v>0.4150452615461898</v>
+        <v>0.1410825720055377</v>
       </c>
       <c r="D133" t="n">
-        <v>0.2185535515973684</v>
+        <v>0.4617846665335467</v>
       </c>
       <c r="E133" t="n">
-        <v>-0.5446730414168662</v>
+        <v>-0.0103584566877212</v>
+      </c>
+      <c r="F133" t="n">
+        <v>-0.2989517601619393</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>SAX-187_1G10</t>
-        </is>
-      </c>
-      <c r="B134" t="n">
-        <v>-0.4670800034356024</v>
+          <t>RVX 208_2D04</t>
+        </is>
+      </c>
+      <c r="B134" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C134" t="n">
-        <v>0.3544211702831796</v>
+        <v>0.5980375773185692</v>
       </c>
       <c r="D134" t="n">
-        <v>-0.1485236925578925</v>
+        <v>-0.1683456635318415</v>
       </c>
       <c r="E134" t="n">
-        <v>-0.2561706829904634</v>
+        <v>0.1841572532136753</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.4054835802424032</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>SMN-C3_1E11</t>
-        </is>
-      </c>
-      <c r="B135" t="n">
-        <v>-0.5015749189706068</v>
+          <t>Rapamycin_2A06</t>
+        </is>
+      </c>
+      <c r="B135" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C135" t="n">
-        <v>0.3561068251505387</v>
+        <v>0.1565523395350715</v>
       </c>
       <c r="D135" t="n">
-        <v>-0.3631136956936164</v>
+        <v>1.257216766708979</v>
       </c>
       <c r="E135" t="n">
-        <v>-0.5808686892324217</v>
+        <v>0.5200029227700703</v>
+      </c>
+      <c r="F135" t="n">
+        <v>-0.8218808810145058</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>Salinomycin_2D02</t>
-        </is>
-      </c>
-      <c r="B136" t="n">
-        <v>0.6074384712869917</v>
+          <t>Ravuconazole_1D06</t>
+        </is>
+      </c>
+      <c r="B136" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C136" t="n">
-        <v>0.5828892943519379</v>
+        <v>0.594161180864436</v>
       </c>
       <c r="D136" t="n">
-        <v>0.3858426675054263</v>
+        <v>0.5686762105159332</v>
       </c>
       <c r="E136" t="n">
-        <v>-0.237920320146176</v>
+        <v>1.810976617510947</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1.037564906123961</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>Selumetinib_2G05</t>
-        </is>
-      </c>
-      <c r="B137" t="n">
-        <v>-0.1530391292768102</v>
+          <t>Regorafenib_1B04</t>
+        </is>
+      </c>
+      <c r="B137" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C137" t="n">
-        <v>0.591038199443927</v>
+        <v>1.218023520457287</v>
       </c>
       <c r="D137" t="n">
-        <v>0.04947633641756897</v>
+        <v>0.3948428121889413</v>
       </c>
       <c r="E137" t="n">
-        <v>-0.6147340263316133</v>
+        <v>1.895624658169395</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.4151034702075635</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>Sertindole_2G08</t>
-        </is>
-      </c>
-      <c r="B138" t="n">
-        <v>-0.2261902612275889</v>
+          <t>Remdesivir_1A06</t>
+        </is>
+      </c>
+      <c r="B138" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C138" t="n">
-        <v>0.6027965160477097</v>
+        <v>0.3641042077865169</v>
       </c>
       <c r="D138" t="n">
-        <v>0.003969701244032779</v>
+        <v>0.2565777699609278</v>
       </c>
       <c r="E138" t="n">
-        <v>-0.9373953864096651</v>
+        <v>0.2241436641352575</v>
+      </c>
+      <c r="F138" t="n">
+        <v>-0.2402165376715617</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>Silmitasertib_2C02</t>
-        </is>
-      </c>
-      <c r="B139" t="n">
-        <v>0.3670605428230179</v>
+          <t>Ribavirin_1F08</t>
+        </is>
+      </c>
+      <c r="B139" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C139" t="n">
-        <v>0.2713254223478047</v>
+        <v>0.2653656800031687</v>
       </c>
       <c r="D139" t="n">
-        <v>0.2005506279908781</v>
+        <v>-0.1136893925678733</v>
       </c>
       <c r="E139" t="n">
-        <v>-0.2643410713273253</v>
+        <v>0.1336743126432729</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.1388073721431359</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>Simeprevir_1D09</t>
-        </is>
-      </c>
-      <c r="B140" t="n">
-        <v>0.516462075160744</v>
+          <t>Ritonavir_1A11</t>
+        </is>
+      </c>
+      <c r="B140" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C140" t="n">
-        <v>-0.09189649795910348</v>
+        <v>0.2846747638820607</v>
       </c>
       <c r="D140" t="n">
-        <v>0.2159071779716877</v>
+        <v>-0.374750174219101</v>
       </c>
       <c r="E140" t="n">
-        <v>-0.2543977004004557</v>
+        <v>-0.5820299035319859</v>
+      </c>
+      <c r="F140" t="n">
+        <v>-0.305666428526834</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>Sofosbuvir_1E09</t>
-        </is>
-      </c>
-      <c r="B141" t="n">
-        <v>-0.4715076123575666</v>
+          <t>Ruxolitinib_1B11</t>
+        </is>
+      </c>
+      <c r="B141" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C141" t="n">
-        <v>0.3742062386262041</v>
+        <v>0.2614854567045539</v>
       </c>
       <c r="D141" t="n">
-        <v>-0.07080382999424992</v>
+        <v>0.4150452615461898</v>
       </c>
       <c r="E141" t="n">
-        <v>-0.3974809552588212</v>
+        <v>0.2185535515973684</v>
+      </c>
+      <c r="F141" t="n">
+        <v>-0.5446730414168662</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>Sorafenib_1F09</t>
-        </is>
-      </c>
-      <c r="B142" t="n">
-        <v>0.1590551057885627</v>
+          <t>SAX-187_1G10</t>
+        </is>
+      </c>
+      <c r="B142" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C142" t="n">
-        <v>0.7049811567602333</v>
+        <v>-0.4670800034356024</v>
       </c>
       <c r="D142" t="n">
-        <v>0.6751335916232994</v>
+        <v>0.3544211702831796</v>
       </c>
       <c r="E142" t="n">
-        <v>0.02400932152992108</v>
+        <v>-0.1485236925578925</v>
+      </c>
+      <c r="F142" t="n">
+        <v>-0.2561706829904634</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>Spectinomycin_2F09</t>
-        </is>
-      </c>
-      <c r="B143" t="n">
-        <v>0.2102253160312551</v>
+          <t>SMN-C3_1E11</t>
+        </is>
+      </c>
+      <c r="B143" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C143" t="n">
-        <v>0.3647512104199193</v>
+        <v>-0.5015749189706068</v>
       </c>
       <c r="D143" t="n">
-        <v>-0.1308989999762782</v>
+        <v>0.3561068251505387</v>
       </c>
       <c r="E143" t="n">
-        <v>-0.2648923591789241</v>
+        <v>-0.3631136956936164</v>
+      </c>
+      <c r="F143" t="n">
+        <v>-0.5808686892324217</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>Tacrolimus_2B07</t>
-        </is>
-      </c>
-      <c r="B144" t="n">
-        <v>-0.2265630019988562</v>
+          <t>Salinomycin_2D02</t>
+        </is>
+      </c>
+      <c r="B144" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C144" t="n">
-        <v>-0.02097010339803478</v>
+        <v>0.6074384712869917</v>
       </c>
       <c r="D144" t="n">
-        <v>0.2733554752853993</v>
+        <v>0.5828892943519379</v>
       </c>
       <c r="E144" t="n">
-        <v>0.1751461225873632</v>
+        <v>0.3858426675054263</v>
+      </c>
+      <c r="F144" t="n">
+        <v>-0.237920320146176</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>Tenofovir_2B11</t>
-        </is>
-      </c>
-      <c r="B145" t="n">
-        <v>0.5131109086533441</v>
+          <t>Selumetinib_2G05</t>
+        </is>
+      </c>
+      <c r="B145" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C145" t="n">
-        <v>-0.5413992445579746</v>
+        <v>-0.1530391292768102</v>
       </c>
       <c r="D145" t="n">
-        <v>-0.6542054167950904</v>
+        <v>0.591038199443927</v>
       </c>
       <c r="E145" t="n">
-        <v>0.08189793115558382</v>
+        <v>0.04947633641756897</v>
+      </c>
+      <c r="F145" t="n">
+        <v>-0.6147340263316133</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>Terconazole_1G07</t>
-        </is>
-      </c>
-      <c r="B146" t="n">
-        <v>0.7784732220863911</v>
+          <t>Sertindole_2G08</t>
+        </is>
+      </c>
+      <c r="B146" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C146" t="n">
-        <v>0.6315920078948497</v>
+        <v>-0.2261902612275889</v>
       </c>
       <c r="D146" t="n">
-        <v>0.1346711727364221</v>
+        <v>0.6027965160477097</v>
       </c>
       <c r="E146" t="n">
-        <v>-1.13850424252725</v>
+        <v>0.003969701244032779</v>
+      </c>
+      <c r="F146" t="n">
+        <v>-0.9373953864096651</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>Tetracycline_2A03</t>
-        </is>
-      </c>
-      <c r="B147" t="n">
-        <v>-0.05117482290710533</v>
+          <t>Silmitasertib_2C02</t>
+        </is>
+      </c>
+      <c r="B147" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C147" t="n">
-        <v>0.2846135901695395</v>
+        <v>0.3670605428230179</v>
       </c>
       <c r="D147" t="n">
-        <v>0.08161508627336891</v>
+        <v>0.2713254223478047</v>
       </c>
       <c r="E147" t="n">
-        <v>-0.1028553871201141</v>
+        <v>0.2005506279908781</v>
+      </c>
+      <c r="F147" t="n">
+        <v>-0.2643410713273253</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>Tetrandrine_1H03</t>
-        </is>
-      </c>
-      <c r="B148" t="n">
-        <v>0.1083900197581622</v>
+          <t>Simeprevir_1D09</t>
+        </is>
+      </c>
+      <c r="B148" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C148" t="n">
-        <v>-0.2924095921304101</v>
+        <v>0.516462075160744</v>
       </c>
       <c r="D148" t="n">
-        <v>0.249683171297671</v>
+        <v>-0.09189649795910348</v>
       </c>
       <c r="E148" t="n">
-        <v>0.6942148849436562</v>
+        <v>0.2159071779716877</v>
+      </c>
+      <c r="F148" t="n">
+        <v>-0.2543977004004557</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>Thiethylperazine_2B06</t>
-        </is>
-      </c>
-      <c r="B149" t="n">
-        <v>0.8617727799187693</v>
+          <t>Sofosbuvir_1E09</t>
+        </is>
+      </c>
+      <c r="B149" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C149" t="n">
-        <v>-1.008062912398765</v>
+        <v>-0.4715076123575666</v>
       </c>
       <c r="D149" t="n">
-        <v>0.01558308119102651</v>
+        <v>0.3742062386262041</v>
       </c>
       <c r="E149" t="n">
-        <v>0.6587524117328716</v>
+        <v>-0.07080382999424992</v>
+      </c>
+      <c r="F149" t="n">
+        <v>-0.3974809552588212</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>Tigecycline_1C11</t>
-        </is>
-      </c>
-      <c r="B150" t="n">
-        <v>0.188781097270152</v>
+          <t>Sorafenib_1F09</t>
+        </is>
+      </c>
+      <c r="B150" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C150" t="n">
-        <v>0.3799391728016935</v>
+        <v>0.1590551057885627</v>
       </c>
       <c r="D150" t="n">
-        <v>0.6827814206880731</v>
+        <v>0.7049811567602333</v>
       </c>
       <c r="E150" t="n">
-        <v>-0.07856005677225493</v>
+        <v>0.6751335916232994</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0.02400932152992108</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>Tioguanine_1C08</t>
-        </is>
-      </c>
-      <c r="B151" t="n">
-        <v>-0.05562908140183797</v>
+          <t>Spectinomycin_2F09</t>
+        </is>
+      </c>
+      <c r="B151" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C151" t="n">
-        <v>0.6673355466444932</v>
+        <v>0.2102253160312551</v>
       </c>
       <c r="D151" t="n">
-        <v>0.5389185608446113</v>
+        <v>0.3647512104199193</v>
       </c>
       <c r="E151" t="n">
-        <v>-0.4313910064924892</v>
+        <v>-0.1308989999762782</v>
+      </c>
+      <c r="F151" t="n">
+        <v>-0.2648923591789241</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>Tizoxanide_1D07</t>
-        </is>
-      </c>
-      <c r="B152" t="n">
-        <v>0.7552733781329747</v>
+          <t>Tacrolimus_2B07</t>
+        </is>
+      </c>
+      <c r="B152" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C152" t="n">
-        <v>0.213792654576186</v>
+        <v>-0.2917907086244522</v>
       </c>
       <c r="D152" t="n">
-        <v>0.1993683694172194</v>
+        <v>0.2153029670651978</v>
       </c>
       <c r="E152" t="n">
-        <v>-0.1643285897253559</v>
+        <v>0.4207864780663468</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0.1110193066137369</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="1" t="inlineStr">
-        <is>
-          <t>Tomivosertib_1C09</t>
-        </is>
-      </c>
-      <c r="B153" t="n">
-        <v>-0.1561373534403162</v>
+      <c r="A153" s="1" t="n"/>
+      <c r="B153" s="1" t="n">
+        <v>0.5</v>
       </c>
       <c r="C153" t="n">
-        <v>0.9557972156140002</v>
+        <v>-0.1355812471549732</v>
       </c>
       <c r="D153" t="n">
-        <v>0.4680925081269225</v>
+        <v>0.07858236391811316</v>
       </c>
       <c r="E153" t="n">
-        <v>-0.6589513828913939</v>
+        <v>0.4388771450128018</v>
+      </c>
+      <c r="F153" t="n">
+        <v>-0.2639809364159663</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>Toremifene_2A04</t>
-        </is>
-      </c>
-      <c r="B154" t="n">
-        <v>0.1369233314428077</v>
+          <t>Tenofovir_2B11</t>
+        </is>
+      </c>
+      <c r="B154" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C154" t="n">
-        <v>0.2202982529974723</v>
+        <v>0.5131109086533441</v>
       </c>
       <c r="D154" t="n">
-        <v>0.4093654714023991</v>
+        <v>-0.5413992445579746</v>
       </c>
       <c r="E154" t="n">
-        <v>-0.3593408759985956</v>
+        <v>-0.6542054167950904</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0.08189793115558382</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>Triparanol_1E07</t>
-        </is>
-      </c>
-      <c r="B155" t="n">
-        <v>-0.7959878656384569</v>
+          <t>Terconazole_1G07</t>
+        </is>
+      </c>
+      <c r="B155" s="1" t="n">
+        <v>0.5</v>
       </c>
       <c r="C155" t="n">
-        <v>0.07873186714382488</v>
+        <v>-0.06283363140663521</v>
       </c>
       <c r="D155" t="n">
-        <v>-0.6723491231501307</v>
+        <v>0.4170244482820775</v>
       </c>
       <c r="E155" t="n">
-        <v>-0.3256064116465058</v>
+        <v>0.3446769987041953</v>
+      </c>
+      <c r="F155" t="n">
+        <v>-0.4990048008632677</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="1" t="inlineStr">
-        <is>
-          <t>Umifenovir_2E02</t>
-        </is>
-      </c>
-      <c r="B156" t="n">
-        <v>-0.1584822273981153</v>
+      <c r="A156" s="1" t="n"/>
+      <c r="B156" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C156" t="n">
-        <v>0.1623018522095857</v>
+        <v>0.912118709159938</v>
       </c>
       <c r="D156" t="n">
-        <v>0.1814000035524998</v>
+        <v>0.6084297957260691</v>
       </c>
       <c r="E156" t="n">
-        <v>-0.3518527938691907</v>
+        <v>0.2431443741602884</v>
+      </c>
+      <c r="F156" t="n">
+        <v>-1.126186706294745</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>Valdecoxib_2G10</t>
-        </is>
-      </c>
-      <c r="B157" t="n">
-        <v>-0.09926445410055144</v>
+          <t>Tetracycline_2A03</t>
+        </is>
+      </c>
+      <c r="B157" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C157" t="n">
-        <v>-0.4397751333841629</v>
+        <v>-0.05117482290710533</v>
       </c>
       <c r="D157" t="n">
-        <v>0.09624439835969865</v>
+        <v>0.2846135901695395</v>
       </c>
       <c r="E157" t="n">
-        <v>0.04631102967227273</v>
+        <v>0.08161508627336891</v>
+      </c>
+      <c r="F157" t="n">
+        <v>-0.1028553871201141</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>Valproic Acid_1D08</t>
-        </is>
-      </c>
-      <c r="B158" t="n">
-        <v>-0.1914671273433698</v>
+          <t>Tetrandrine_1H03</t>
+        </is>
+      </c>
+      <c r="B158" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C158" t="n">
-        <v>-0.2857918905326558</v>
+        <v>0.1083900197581622</v>
       </c>
       <c r="D158" t="n">
-        <v>0.09293707548625896</v>
+        <v>-0.2924095921304101</v>
       </c>
       <c r="E158" t="n">
-        <v>0.5458983546080178</v>
+        <v>0.249683171297671</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0.6942148849436562</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>Valsartan_1F02</t>
-        </is>
-      </c>
-      <c r="B159" t="n">
-        <v>0.1784394875226178</v>
+          <t>Thiethylperazine_2B06</t>
+        </is>
+      </c>
+      <c r="B159" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C159" t="n">
-        <v>-0.5237947033491881</v>
+        <v>0.8617727799187693</v>
       </c>
       <c r="D159" t="n">
-        <v>-0.5274643149220896</v>
+        <v>-1.008062912398765</v>
       </c>
       <c r="E159" t="n">
-        <v>0.3139744462719284</v>
+        <v>0.01558308119102651</v>
+      </c>
+      <c r="F159" t="n">
+        <v>0.6587524117328716</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>Veliparib_2G02</t>
-        </is>
-      </c>
-      <c r="B160" t="n">
-        <v>0.02530638996300167</v>
+          <t>Tigecycline_1C11</t>
+        </is>
+      </c>
+      <c r="B160" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C160" t="n">
-        <v>-0.1049347568134338</v>
+        <v>0.188781097270152</v>
       </c>
       <c r="D160" t="n">
-        <v>0.7060844345435516</v>
+        <v>0.3799391728016935</v>
       </c>
       <c r="E160" t="n">
-        <v>0.3593673738353262</v>
+        <v>0.6827814206880731</v>
+      </c>
+      <c r="F160" t="n">
+        <v>-0.07856005677225493</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>Verapamil_1B08</t>
-        </is>
-      </c>
-      <c r="B161" t="n">
-        <v>0.2451116972461627</v>
+          <t>Tioguanine_1C08</t>
+        </is>
+      </c>
+      <c r="B161" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C161" t="n">
-        <v>0.5138825138721929</v>
+        <v>-0.05562908140183797</v>
       </c>
       <c r="D161" t="n">
-        <v>0.5286763936013753</v>
+        <v>0.6673355466444932</v>
       </c>
       <c r="E161" t="n">
-        <v>-0.263553868345941</v>
+        <v>0.5389185608446113</v>
+      </c>
+      <c r="F161" t="n">
+        <v>-0.4313910064924892</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>Vidofludimus_1D11</t>
-        </is>
-      </c>
-      <c r="B162" t="n">
-        <v>0.340001586467969</v>
+          <t>Tizoxanide_1D07</t>
+        </is>
+      </c>
+      <c r="B162" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C162" t="n">
-        <v>-0.3522459455159682</v>
+        <v>0.7552733781329747</v>
       </c>
       <c r="D162" t="n">
-        <v>-0.1465714694828309</v>
+        <v>0.213792654576186</v>
       </c>
       <c r="E162" t="n">
-        <v>0.07652010503155114</v>
+        <v>0.1993683694172194</v>
+      </c>
+      <c r="F162" t="n">
+        <v>-0.1643285897253559</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
+          <t>Tomivosertib_1C09</t>
+        </is>
+      </c>
+      <c r="B163" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C163" t="n">
+        <v>-0.1561373534403162</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0.9557972156140002</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0.4680925081269225</v>
+      </c>
+      <c r="F163" t="n">
+        <v>-0.6589513828913939</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="inlineStr">
+        <is>
+          <t>Toremifene_2A04</t>
+        </is>
+      </c>
+      <c r="B164" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C164" t="n">
+        <v>0.1369233314428077</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0.2202982529974723</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0.4093654714023991</v>
+      </c>
+      <c r="F164" t="n">
+        <v>-0.3593408759985956</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="inlineStr">
+        <is>
+          <t>Triparanol_1E07</t>
+        </is>
+      </c>
+      <c r="B165" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C165" t="n">
+        <v>-0.7959878656384569</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0.07873186714382488</v>
+      </c>
+      <c r="E165" t="n">
+        <v>-0.6723491231501307</v>
+      </c>
+      <c r="F165" t="n">
+        <v>-0.3256064116465058</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="inlineStr">
+        <is>
+          <t>Umifenovir_2E02</t>
+        </is>
+      </c>
+      <c r="B166" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C166" t="n">
+        <v>-0.1584822273981153</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0.1623018522095857</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0.1814000035524998</v>
+      </c>
+      <c r="F166" t="n">
+        <v>-0.3518527938691907</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="inlineStr">
+        <is>
+          <t>Valdecoxib_2G10</t>
+        </is>
+      </c>
+      <c r="B167" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C167" t="n">
+        <v>-0.09926445410055144</v>
+      </c>
+      <c r="D167" t="n">
+        <v>-0.4397751333841629</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0.09624439835969865</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0.04631102967227273</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="inlineStr">
+        <is>
+          <t>Valproic Acid_1D08</t>
+        </is>
+      </c>
+      <c r="B168" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C168" t="n">
+        <v>-0.1914671273433698</v>
+      </c>
+      <c r="D168" t="n">
+        <v>-0.2857918905326558</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0.09293707548625896</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0.5458983546080178</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="inlineStr">
+        <is>
+          <t>Valsartan_1F02</t>
+        </is>
+      </c>
+      <c r="B169" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C169" t="n">
+        <v>0.1784394875226178</v>
+      </c>
+      <c r="D169" t="n">
+        <v>-0.5237947033491881</v>
+      </c>
+      <c r="E169" t="n">
+        <v>-0.5274643149220896</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0.3139744462719284</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="inlineStr">
+        <is>
+          <t>Veliparib_2G02</t>
+        </is>
+      </c>
+      <c r="B170" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C170" t="n">
+        <v>0.02530638996300167</v>
+      </c>
+      <c r="D170" t="n">
+        <v>-0.1049347568134338</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0.7060844345435516</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0.3593673738353262</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="inlineStr">
+        <is>
+          <t>Verapamil_1B08</t>
+        </is>
+      </c>
+      <c r="B171" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C171" t="n">
+        <v>0.2451116972461627</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0.5138825138721929</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0.5286763936013753</v>
+      </c>
+      <c r="F171" t="n">
+        <v>-0.263553868345941</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="inlineStr">
+        <is>
+          <t>Vidofludimus_1D11</t>
+        </is>
+      </c>
+      <c r="B172" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C172" t="n">
+        <v>0.340001586467969</v>
+      </c>
+      <c r="D172" t="n">
+        <v>-0.3522459455159682</v>
+      </c>
+      <c r="E172" t="n">
+        <v>-0.1465714694828309</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0.07652010503155114</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="inlineStr">
+        <is>
           <t>ZINC4326719_2E07</t>
         </is>
       </c>
-      <c r="B163" t="n">
+      <c r="B173" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C173" t="n">
         <v>0.3526872284792305</v>
       </c>
-      <c r="C163" t="n">
+      <c r="D173" t="n">
         <v>0.07964961935699254</v>
       </c>
-      <c r="D163" t="n">
+      <c r="E173" t="n">
         <v>0.3622101480685644</v>
       </c>
-      <c r="E163" t="n">
+      <c r="F173" t="n">
         <v>0.4998942194052007</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="A101:A104"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="A152:A153"/>
+    <mergeCell ref="A155:A156"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>